--- a/IJE Data Elements Mapping.xlsx
+++ b/IJE Data Elements Mapping.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbdulMalikShakir\Documents\NCHS-20210126T065408Z-001\NCHS\VR_FHIR\VRDR_R4_Publication\September 2021 Connectathon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbdulMalikShakir\Documents\NCHS-20210126T065408Z-001\NCHS\VR_FHIR\VRDR_R4_Publication\vrdr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97263D2-04A3-4F12-9533-F6AE848B9AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7B8415-A94C-4BB7-8DE5-A50493A4BF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IJE Data Elements Mapping" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'IJE Data Elements Mapping'!$A$1:$Z$1000</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -2366,10 +2369,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -34792,6 +34795,7 @@
       <c r="Z1000" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z1000" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/IJE Data Elements Mapping.xlsx
+++ b/IJE Data Elements Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbdulMalikShakir\Documents\NCHS-20210126T065408Z-001\NCHS\VR_FHIR\VRDR_R4_Publication\vrdr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7B8415-A94C-4BB7-8DE5-A50493A4BF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC76C02-CD27-4442-9EAD-5622AF6F6551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2366,10 +2366,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
@@ -2590,7 +2591,7 @@
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
@@ -2684,7 +2685,7 @@
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -2928,7 +2929,7 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
@@ -5188,7 +5189,7 @@
       <c r="Y59" s="11"/>
       <c r="Z59" s="11"/>
     </row>
-    <row r="60" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>11</v>
       </c>
@@ -5232,7 +5233,7 @@
       <c r="Y60" s="11"/>
       <c r="Z60" s="11"/>
     </row>
-    <row r="61" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>11</v>
       </c>
@@ -5276,7 +5277,7 @@
       <c r="Y61" s="11"/>
       <c r="Z61" s="11"/>
     </row>
-    <row r="62" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>11</v>
       </c>
@@ -5320,7 +5321,7 @@
       <c r="Y62" s="11"/>
       <c r="Z62" s="11"/>
     </row>
-    <row r="63" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>11</v>
       </c>
@@ -5364,7 +5365,7 @@
       <c r="Y63" s="11"/>
       <c r="Z63" s="11"/>
     </row>
-    <row r="64" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>11</v>
       </c>
@@ -5408,7 +5409,7 @@
       <c r="Y64" s="11"/>
       <c r="Z64" s="11"/>
     </row>
-    <row r="65" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>11</v>
       </c>
@@ -5452,7 +5453,7 @@
       <c r="Y65" s="11"/>
       <c r="Z65" s="11"/>
     </row>
-    <row r="66" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>11</v>
       </c>
@@ -5496,7 +5497,7 @@
       <c r="Y66" s="11"/>
       <c r="Z66" s="11"/>
     </row>
-    <row r="67" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>11</v>
       </c>
@@ -6276,7 +6277,7 @@
       <c r="Y83" s="11"/>
       <c r="Z83" s="11"/>
     </row>
-    <row r="84" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>11</v>
       </c>
@@ -6780,7 +6781,7 @@
       <c r="Y94" s="11"/>
       <c r="Z94" s="11"/>
     </row>
-    <row r="95" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>11</v>
       </c>
@@ -6824,7 +6825,7 @@
       <c r="Y95" s="11"/>
       <c r="Z95" s="11"/>
     </row>
-    <row r="96" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>11</v>
       </c>
@@ -6868,7 +6869,7 @@
       <c r="Y96" s="11"/>
       <c r="Z96" s="11"/>
     </row>
-    <row r="97" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>11</v>
       </c>
@@ -6958,7 +6959,7 @@
       <c r="Y98" s="11"/>
       <c r="Z98" s="11"/>
     </row>
-    <row r="99" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>265</v>
       </c>
@@ -7002,7 +7003,7 @@
       <c r="Y99" s="11"/>
       <c r="Z99" s="11"/>
     </row>
-    <row r="100" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>265</v>
       </c>
@@ -7046,7 +7047,7 @@
       <c r="Y100" s="11"/>
       <c r="Z100" s="11"/>
     </row>
-    <row r="101" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>265</v>
       </c>
@@ -7090,7 +7091,7 @@
       <c r="Y101" s="11"/>
       <c r="Z101" s="11"/>
     </row>
-    <row r="102" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>265</v>
       </c>
@@ -7134,7 +7135,7 @@
       <c r="Y102" s="11"/>
       <c r="Z102" s="11"/>
     </row>
-    <row r="103" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>265</v>
       </c>
@@ -7178,7 +7179,7 @@
       <c r="Y103" s="11"/>
       <c r="Z103" s="11"/>
     </row>
-    <row r="104" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>265</v>
       </c>
@@ -7222,7 +7223,7 @@
       <c r="Y104" s="11"/>
       <c r="Z104" s="11"/>
     </row>
-    <row r="105" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
         <v>265</v>
       </c>
@@ -7266,7 +7267,7 @@
       <c r="Y105" s="11"/>
       <c r="Z105" s="11"/>
     </row>
-    <row r="106" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
         <v>265</v>
       </c>
@@ -7816,7 +7817,7 @@
       <c r="Y117" s="11"/>
       <c r="Z117" s="11"/>
     </row>
-    <row r="118" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>265</v>
       </c>
@@ -7906,7 +7907,7 @@
       <c r="Y119" s="11"/>
       <c r="Z119" s="11"/>
     </row>
-    <row r="120" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>265</v>
       </c>
@@ -7950,7 +7951,7 @@
       <c r="Y120" s="11"/>
       <c r="Z120" s="11"/>
     </row>
-    <row r="121" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
         <v>265</v>
       </c>
@@ -7994,7 +7995,7 @@
       <c r="Y121" s="11"/>
       <c r="Z121" s="11"/>
     </row>
-    <row r="122" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
         <v>265</v>
       </c>
@@ -8038,7 +8039,7 @@
       <c r="Y122" s="11"/>
       <c r="Z122" s="11"/>
     </row>
-    <row r="123" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>265</v>
       </c>
@@ -8818,7 +8819,7 @@
       <c r="Y139" s="11"/>
       <c r="Z139" s="11"/>
     </row>
-    <row r="140" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>329</v>
       </c>
@@ -9506,7 +9507,7 @@
       <c r="Y154" s="11"/>
       <c r="Z154" s="11"/>
     </row>
-    <row r="155" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>329</v>
       </c>
@@ -9550,7 +9551,7 @@
       <c r="Y155" s="11"/>
       <c r="Z155" s="11"/>
     </row>
-    <row r="156" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>329</v>
       </c>
@@ -10652,7 +10653,7 @@
       <c r="Y179" s="11"/>
       <c r="Z179" s="11"/>
     </row>
-    <row r="180" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
         <v>329</v>
       </c>
@@ -10696,7 +10697,7 @@
       <c r="Y180" s="11"/>
       <c r="Z180" s="11"/>
     </row>
-    <row r="181" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>329</v>
       </c>
@@ -13086,7 +13087,7 @@
       <c r="Y232" s="11"/>
       <c r="Z232" s="11"/>
     </row>
-    <row r="233" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="12" t="s">
         <v>329</v>
       </c>
@@ -13314,7 +13315,7 @@
       <c r="Y237" s="11"/>
       <c r="Z237" s="11"/>
     </row>
-    <row r="238" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="12" t="s">
         <v>329</v>
       </c>
@@ -13358,7 +13359,7 @@
       <c r="Y238" s="11"/>
       <c r="Z238" s="11"/>
     </row>
-    <row r="239" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="12" t="s">
         <v>329</v>
       </c>
@@ -13402,7 +13403,7 @@
       <c r="Y239" s="11"/>
       <c r="Z239" s="11"/>
     </row>
-    <row r="240" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="12" t="s">
         <v>329</v>
       </c>
@@ -13446,7 +13447,7 @@
       <c r="Y240" s="11"/>
       <c r="Z240" s="11"/>
     </row>
-    <row r="241" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="s">
         <v>329</v>
       </c>
@@ -13490,7 +13491,7 @@
       <c r="Y241" s="11"/>
       <c r="Z241" s="11"/>
     </row>
-    <row r="242" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="12" t="s">
         <v>329</v>
       </c>
@@ -13626,7 +13627,7 @@
       <c r="Y244" s="11"/>
       <c r="Z244" s="11"/>
     </row>
-    <row r="245" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="11"/>
       <c r="B245" s="11"/>
       <c r="C245" s="11"/>
@@ -13654,7 +13655,7 @@
       <c r="Y245" s="11"/>
       <c r="Z245" s="11"/>
     </row>
-    <row r="246" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="11"/>
       <c r="B246" s="11"/>
       <c r="C246" s="11"/>
@@ -13682,7 +13683,7 @@
       <c r="Y246" s="11"/>
       <c r="Z246" s="11"/>
     </row>
-    <row r="247" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="11"/>
       <c r="B247" s="11"/>
       <c r="C247" s="11"/>
@@ -13710,7 +13711,7 @@
       <c r="Y247" s="11"/>
       <c r="Z247" s="11"/>
     </row>
-    <row r="248" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="11"/>
       <c r="B248" s="11"/>
       <c r="C248" s="11"/>
@@ -13738,7 +13739,7 @@
       <c r="Y248" s="11"/>
       <c r="Z248" s="11"/>
     </row>
-    <row r="249" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="11"/>
       <c r="B249" s="11"/>
       <c r="C249" s="11"/>
@@ -13766,7 +13767,7 @@
       <c r="Y249" s="11"/>
       <c r="Z249" s="11"/>
     </row>
-    <row r="250" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="11"/>
       <c r="B250" s="11"/>
       <c r="C250" s="11"/>
@@ -13794,7 +13795,7 @@
       <c r="Y250" s="11"/>
       <c r="Z250" s="11"/>
     </row>
-    <row r="251" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="11"/>
       <c r="B251" s="11"/>
       <c r="C251" s="11"/>
@@ -13822,7 +13823,7 @@
       <c r="Y251" s="11"/>
       <c r="Z251" s="11"/>
     </row>
-    <row r="252" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="11"/>
       <c r="B252" s="11"/>
       <c r="C252" s="11"/>
@@ -13850,7 +13851,7 @@
       <c r="Y252" s="11"/>
       <c r="Z252" s="11"/>
     </row>
-    <row r="253" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="11"/>
       <c r="B253" s="11"/>
       <c r="C253" s="11"/>
@@ -13878,7 +13879,7 @@
       <c r="Y253" s="11"/>
       <c r="Z253" s="11"/>
     </row>
-    <row r="254" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="11"/>
       <c r="B254" s="11"/>
       <c r="C254" s="11"/>
@@ -13906,7 +13907,7 @@
       <c r="Y254" s="11"/>
       <c r="Z254" s="11"/>
     </row>
-    <row r="255" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="11"/>
       <c r="B255" s="11"/>
       <c r="C255" s="11"/>
@@ -13934,7 +13935,7 @@
       <c r="Y255" s="11"/>
       <c r="Z255" s="11"/>
     </row>
-    <row r="256" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="11"/>
       <c r="B256" s="11"/>
       <c r="C256" s="11"/>
@@ -13962,7 +13963,7 @@
       <c r="Y256" s="11"/>
       <c r="Z256" s="11"/>
     </row>
-    <row r="257" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:26" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="11"/>
       <c r="B257" s="11"/>
       <c r="C257" s="11"/>
@@ -13990,7 +13991,7 @@
       <c r="Y257" s="11"/>
       <c r="Z257" s="11"/>
     </row>
-    <row r="258" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="11"/>
       <c r="B258" s="11"/>
       <c r="C258" s="11"/>
@@ -14018,7 +14019,7 @@
       <c r="Y258" s="11"/>
       <c r="Z258" s="11"/>
     </row>
-    <row r="259" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="11"/>
       <c r="B259" s="11"/>
       <c r="C259" s="11"/>
@@ -14046,7 +14047,7 @@
       <c r="Y259" s="11"/>
       <c r="Z259" s="11"/>
     </row>
-    <row r="260" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="11"/>
       <c r="B260" s="11"/>
       <c r="C260" s="11"/>
@@ -14074,7 +14075,7 @@
       <c r="Y260" s="11"/>
       <c r="Z260" s="11"/>
     </row>
-    <row r="261" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="11"/>
       <c r="B261" s="11"/>
       <c r="C261" s="11"/>
@@ -14102,7 +14103,7 @@
       <c r="Y261" s="11"/>
       <c r="Z261" s="11"/>
     </row>
-    <row r="262" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="11"/>
       <c r="B262" s="11"/>
       <c r="C262" s="11"/>
@@ -14130,7 +14131,7 @@
       <c r="Y262" s="11"/>
       <c r="Z262" s="11"/>
     </row>
-    <row r="263" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="11"/>
       <c r="B263" s="11"/>
       <c r="C263" s="11"/>
@@ -14158,7 +14159,7 @@
       <c r="Y263" s="11"/>
       <c r="Z263" s="11"/>
     </row>
-    <row r="264" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="11"/>
       <c r="B264" s="11"/>
       <c r="C264" s="11"/>
@@ -14186,7 +14187,7 @@
       <c r="Y264" s="11"/>
       <c r="Z264" s="11"/>
     </row>
-    <row r="265" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="11"/>
       <c r="B265" s="11"/>
       <c r="C265" s="11"/>
@@ -14214,7 +14215,7 @@
       <c r="Y265" s="11"/>
       <c r="Z265" s="11"/>
     </row>
-    <row r="266" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="11"/>
       <c r="B266" s="11"/>
       <c r="C266" s="11"/>
@@ -14242,7 +14243,7 @@
       <c r="Y266" s="11"/>
       <c r="Z266" s="11"/>
     </row>
-    <row r="267" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="11"/>
       <c r="B267" s="11"/>
       <c r="C267" s="11"/>
@@ -14270,7 +14271,7 @@
       <c r="Y267" s="11"/>
       <c r="Z267" s="11"/>
     </row>
-    <row r="268" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="11"/>
       <c r="B268" s="11"/>
       <c r="C268" s="11"/>
@@ -14298,7 +14299,7 @@
       <c r="Y268" s="11"/>
       <c r="Z268" s="11"/>
     </row>
-    <row r="269" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="11"/>
       <c r="B269" s="11"/>
       <c r="C269" s="11"/>
@@ -14326,7 +14327,7 @@
       <c r="Y269" s="11"/>
       <c r="Z269" s="11"/>
     </row>
-    <row r="270" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="11"/>
       <c r="B270" s="11"/>
       <c r="C270" s="11"/>
@@ -14354,7 +14355,7 @@
       <c r="Y270" s="11"/>
       <c r="Z270" s="11"/>
     </row>
-    <row r="271" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="11"/>
       <c r="B271" s="11"/>
       <c r="C271" s="11"/>
@@ -14382,7 +14383,7 @@
       <c r="Y271" s="11"/>
       <c r="Z271" s="11"/>
     </row>
-    <row r="272" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="11"/>
       <c r="B272" s="11"/>
       <c r="C272" s="11"/>
@@ -14410,7 +14411,7 @@
       <c r="Y272" s="11"/>
       <c r="Z272" s="11"/>
     </row>
-    <row r="273" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="11"/>
       <c r="B273" s="11"/>
       <c r="C273" s="11"/>
@@ -14438,7 +14439,7 @@
       <c r="Y273" s="11"/>
       <c r="Z273" s="11"/>
     </row>
-    <row r="274" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="11"/>
       <c r="B274" s="11"/>
       <c r="C274" s="11"/>
@@ -14466,7 +14467,7 @@
       <c r="Y274" s="11"/>
       <c r="Z274" s="11"/>
     </row>
-    <row r="275" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="11"/>
       <c r="B275" s="11"/>
       <c r="C275" s="11"/>
@@ -14494,7 +14495,7 @@
       <c r="Y275" s="11"/>
       <c r="Z275" s="11"/>
     </row>
-    <row r="276" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="11"/>
       <c r="B276" s="11"/>
       <c r="C276" s="11"/>
@@ -14522,7 +14523,7 @@
       <c r="Y276" s="11"/>
       <c r="Z276" s="11"/>
     </row>
-    <row r="277" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="11"/>
       <c r="B277" s="11"/>
       <c r="C277" s="11"/>
@@ -14550,7 +14551,7 @@
       <c r="Y277" s="11"/>
       <c r="Z277" s="11"/>
     </row>
-    <row r="278" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="11"/>
       <c r="B278" s="11"/>
       <c r="C278" s="11"/>
@@ -14578,7 +14579,7 @@
       <c r="Y278" s="11"/>
       <c r="Z278" s="11"/>
     </row>
-    <row r="279" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="11"/>
       <c r="B279" s="11"/>
       <c r="C279" s="11"/>
@@ -14606,7 +14607,7 @@
       <c r="Y279" s="11"/>
       <c r="Z279" s="11"/>
     </row>
-    <row r="280" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="11"/>
       <c r="B280" s="11"/>
       <c r="C280" s="11"/>
@@ -14634,7 +14635,7 @@
       <c r="Y280" s="11"/>
       <c r="Z280" s="11"/>
     </row>
-    <row r="281" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="11"/>
       <c r="B281" s="11"/>
       <c r="C281" s="11"/>
@@ -14662,7 +14663,7 @@
       <c r="Y281" s="11"/>
       <c r="Z281" s="11"/>
     </row>
-    <row r="282" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="11"/>
       <c r="B282" s="11"/>
       <c r="C282" s="11"/>
@@ -14690,7 +14691,7 @@
       <c r="Y282" s="11"/>
       <c r="Z282" s="11"/>
     </row>
-    <row r="283" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="11"/>
       <c r="B283" s="11"/>
       <c r="C283" s="11"/>
@@ -14718,7 +14719,7 @@
       <c r="Y283" s="11"/>
       <c r="Z283" s="11"/>
     </row>
-    <row r="284" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="11"/>
       <c r="B284" s="11"/>
       <c r="C284" s="11"/>
@@ -14746,7 +14747,7 @@
       <c r="Y284" s="11"/>
       <c r="Z284" s="11"/>
     </row>
-    <row r="285" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="11"/>
       <c r="B285" s="11"/>
       <c r="C285" s="11"/>
@@ -14774,7 +14775,7 @@
       <c r="Y285" s="11"/>
       <c r="Z285" s="11"/>
     </row>
-    <row r="286" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="11"/>
       <c r="B286" s="11"/>
       <c r="C286" s="11"/>
@@ -14802,7 +14803,7 @@
       <c r="Y286" s="11"/>
       <c r="Z286" s="11"/>
     </row>
-    <row r="287" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="11"/>
       <c r="B287" s="11"/>
       <c r="C287" s="11"/>
@@ -14830,7 +14831,7 @@
       <c r="Y287" s="11"/>
       <c r="Z287" s="11"/>
     </row>
-    <row r="288" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="11"/>
       <c r="B288" s="11"/>
       <c r="C288" s="11"/>
@@ -14858,7 +14859,7 @@
       <c r="Y288" s="11"/>
       <c r="Z288" s="11"/>
     </row>
-    <row r="289" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="11"/>
       <c r="B289" s="11"/>
       <c r="C289" s="11"/>
@@ -14886,7 +14887,7 @@
       <c r="Y289" s="11"/>
       <c r="Z289" s="11"/>
     </row>
-    <row r="290" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="11"/>
       <c r="B290" s="11"/>
       <c r="C290" s="11"/>
@@ -14914,7 +14915,7 @@
       <c r="Y290" s="11"/>
       <c r="Z290" s="11"/>
     </row>
-    <row r="291" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="11"/>
       <c r="B291" s="11"/>
       <c r="C291" s="11"/>
@@ -14942,7 +14943,7 @@
       <c r="Y291" s="11"/>
       <c r="Z291" s="11"/>
     </row>
-    <row r="292" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="11"/>
       <c r="B292" s="11"/>
       <c r="C292" s="11"/>
@@ -14970,7 +14971,7 @@
       <c r="Y292" s="11"/>
       <c r="Z292" s="11"/>
     </row>
-    <row r="293" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="11"/>
       <c r="B293" s="11"/>
       <c r="C293" s="11"/>
@@ -14998,7 +14999,7 @@
       <c r="Y293" s="11"/>
       <c r="Z293" s="11"/>
     </row>
-    <row r="294" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="11"/>
       <c r="B294" s="11"/>
       <c r="C294" s="11"/>
@@ -15026,7 +15027,7 @@
       <c r="Y294" s="11"/>
       <c r="Z294" s="11"/>
     </row>
-    <row r="295" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="11"/>
       <c r="B295" s="11"/>
       <c r="C295" s="11"/>
@@ -15054,7 +15055,7 @@
       <c r="Y295" s="11"/>
       <c r="Z295" s="11"/>
     </row>
-    <row r="296" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="11"/>
       <c r="B296" s="11"/>
       <c r="C296" s="11"/>
@@ -15082,7 +15083,7 @@
       <c r="Y296" s="11"/>
       <c r="Z296" s="11"/>
     </row>
-    <row r="297" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="11"/>
       <c r="B297" s="11"/>
       <c r="C297" s="11"/>
@@ -15110,7 +15111,7 @@
       <c r="Y297" s="11"/>
       <c r="Z297" s="11"/>
     </row>
-    <row r="298" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="11"/>
       <c r="B298" s="11"/>
       <c r="C298" s="11"/>
@@ -15138,7 +15139,7 @@
       <c r="Y298" s="11"/>
       <c r="Z298" s="11"/>
     </row>
-    <row r="299" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="11"/>
       <c r="B299" s="11"/>
       <c r="C299" s="11"/>
@@ -15166,7 +15167,7 @@
       <c r="Y299" s="11"/>
       <c r="Z299" s="11"/>
     </row>
-    <row r="300" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="11"/>
       <c r="B300" s="11"/>
       <c r="C300" s="11"/>
@@ -15194,7 +15195,7 @@
       <c r="Y300" s="11"/>
       <c r="Z300" s="11"/>
     </row>
-    <row r="301" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="11"/>
       <c r="B301" s="11"/>
       <c r="C301" s="11"/>
@@ -15222,7 +15223,7 @@
       <c r="Y301" s="11"/>
       <c r="Z301" s="11"/>
     </row>
-    <row r="302" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="11"/>
       <c r="B302" s="11"/>
       <c r="C302" s="11"/>
@@ -15250,7 +15251,7 @@
       <c r="Y302" s="11"/>
       <c r="Z302" s="11"/>
     </row>
-    <row r="303" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="11"/>
       <c r="B303" s="11"/>
       <c r="C303" s="11"/>
@@ -15278,7 +15279,7 @@
       <c r="Y303" s="11"/>
       <c r="Z303" s="11"/>
     </row>
-    <row r="304" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="11"/>
       <c r="B304" s="11"/>
       <c r="C304" s="11"/>
@@ -15306,7 +15307,7 @@
       <c r="Y304" s="11"/>
       <c r="Z304" s="11"/>
     </row>
-    <row r="305" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="11"/>
       <c r="B305" s="11"/>
       <c r="C305" s="11"/>
@@ -15334,7 +15335,7 @@
       <c r="Y305" s="11"/>
       <c r="Z305" s="11"/>
     </row>
-    <row r="306" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="11"/>
       <c r="B306" s="11"/>
       <c r="C306" s="11"/>
@@ -15362,7 +15363,7 @@
       <c r="Y306" s="11"/>
       <c r="Z306" s="11"/>
     </row>
-    <row r="307" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="11"/>
       <c r="B307" s="11"/>
       <c r="C307" s="11"/>
@@ -15390,7 +15391,7 @@
       <c r="Y307" s="11"/>
       <c r="Z307" s="11"/>
     </row>
-    <row r="308" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="11"/>
       <c r="B308" s="11"/>
       <c r="C308" s="11"/>
@@ -15418,7 +15419,7 @@
       <c r="Y308" s="11"/>
       <c r="Z308" s="11"/>
     </row>
-    <row r="309" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="11"/>
       <c r="B309" s="11"/>
       <c r="C309" s="11"/>
@@ -15446,7 +15447,7 @@
       <c r="Y309" s="11"/>
       <c r="Z309" s="11"/>
     </row>
-    <row r="310" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="11"/>
       <c r="B310" s="11"/>
       <c r="C310" s="11"/>
@@ -15474,7 +15475,7 @@
       <c r="Y310" s="11"/>
       <c r="Z310" s="11"/>
     </row>
-    <row r="311" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="11"/>
       <c r="B311" s="11"/>
       <c r="C311" s="11"/>
@@ -15502,7 +15503,7 @@
       <c r="Y311" s="11"/>
       <c r="Z311" s="11"/>
     </row>
-    <row r="312" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="11"/>
       <c r="B312" s="11"/>
       <c r="C312" s="11"/>
@@ -15530,7 +15531,7 @@
       <c r="Y312" s="11"/>
       <c r="Z312" s="11"/>
     </row>
-    <row r="313" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="11"/>
       <c r="B313" s="11"/>
       <c r="C313" s="11"/>
@@ -15558,7 +15559,7 @@
       <c r="Y313" s="11"/>
       <c r="Z313" s="11"/>
     </row>
-    <row r="314" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="11"/>
       <c r="B314" s="11"/>
       <c r="C314" s="11"/>
@@ -15586,7 +15587,7 @@
       <c r="Y314" s="11"/>
       <c r="Z314" s="11"/>
     </row>
-    <row r="315" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="11"/>
       <c r="B315" s="11"/>
       <c r="C315" s="11"/>
@@ -15614,7 +15615,7 @@
       <c r="Y315" s="11"/>
       <c r="Z315" s="11"/>
     </row>
-    <row r="316" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="11"/>
       <c r="B316" s="11"/>
       <c r="C316" s="11"/>
@@ -15642,7 +15643,7 @@
       <c r="Y316" s="11"/>
       <c r="Z316" s="11"/>
     </row>
-    <row r="317" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="11"/>
       <c r="B317" s="11"/>
       <c r="C317" s="11"/>
@@ -15670,7 +15671,7 @@
       <c r="Y317" s="11"/>
       <c r="Z317" s="11"/>
     </row>
-    <row r="318" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="11"/>
       <c r="B318" s="11"/>
       <c r="C318" s="11"/>
@@ -15698,7 +15699,7 @@
       <c r="Y318" s="11"/>
       <c r="Z318" s="11"/>
     </row>
-    <row r="319" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="11"/>
       <c r="B319" s="11"/>
       <c r="C319" s="11"/>
@@ -15726,7 +15727,7 @@
       <c r="Y319" s="11"/>
       <c r="Z319" s="11"/>
     </row>
-    <row r="320" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="11"/>
       <c r="B320" s="11"/>
       <c r="C320" s="11"/>
@@ -15754,7 +15755,7 @@
       <c r="Y320" s="11"/>
       <c r="Z320" s="11"/>
     </row>
-    <row r="321" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="11"/>
       <c r="B321" s="11"/>
       <c r="C321" s="11"/>
@@ -15782,7 +15783,7 @@
       <c r="Y321" s="11"/>
       <c r="Z321" s="11"/>
     </row>
-    <row r="322" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="11"/>
       <c r="B322" s="11"/>
       <c r="C322" s="11"/>
@@ -15810,7 +15811,7 @@
       <c r="Y322" s="11"/>
       <c r="Z322" s="11"/>
     </row>
-    <row r="323" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="11"/>
       <c r="B323" s="11"/>
       <c r="C323" s="11"/>
@@ -15838,7 +15839,7 @@
       <c r="Y323" s="11"/>
       <c r="Z323" s="11"/>
     </row>
-    <row r="324" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="11"/>
       <c r="B324" s="11"/>
       <c r="C324" s="11"/>
@@ -15866,7 +15867,7 @@
       <c r="Y324" s="11"/>
       <c r="Z324" s="11"/>
     </row>
-    <row r="325" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="11"/>
       <c r="B325" s="11"/>
       <c r="C325" s="11"/>
@@ -15894,7 +15895,7 @@
       <c r="Y325" s="11"/>
       <c r="Z325" s="11"/>
     </row>
-    <row r="326" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="11"/>
       <c r="B326" s="11"/>
       <c r="C326" s="11"/>
@@ -15922,7 +15923,7 @@
       <c r="Y326" s="11"/>
       <c r="Z326" s="11"/>
     </row>
-    <row r="327" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="11"/>
       <c r="B327" s="11"/>
       <c r="C327" s="11"/>
@@ -15950,7 +15951,7 @@
       <c r="Y327" s="11"/>
       <c r="Z327" s="11"/>
     </row>
-    <row r="328" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="11"/>
       <c r="B328" s="11"/>
       <c r="C328" s="11"/>
@@ -15978,7 +15979,7 @@
       <c r="Y328" s="11"/>
       <c r="Z328" s="11"/>
     </row>
-    <row r="329" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="11"/>
       <c r="B329" s="11"/>
       <c r="C329" s="11"/>
@@ -16006,7 +16007,7 @@
       <c r="Y329" s="11"/>
       <c r="Z329" s="11"/>
     </row>
-    <row r="330" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="11"/>
       <c r="B330" s="11"/>
       <c r="C330" s="11"/>
@@ -16034,7 +16035,7 @@
       <c r="Y330" s="11"/>
       <c r="Z330" s="11"/>
     </row>
-    <row r="331" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="11"/>
       <c r="B331" s="11"/>
       <c r="C331" s="11"/>
@@ -16062,7 +16063,7 @@
       <c r="Y331" s="11"/>
       <c r="Z331" s="11"/>
     </row>
-    <row r="332" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="11"/>
       <c r="B332" s="11"/>
       <c r="C332" s="11"/>
@@ -16090,7 +16091,7 @@
       <c r="Y332" s="11"/>
       <c r="Z332" s="11"/>
     </row>
-    <row r="333" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="11"/>
       <c r="B333" s="11"/>
       <c r="C333" s="11"/>
@@ -16118,7 +16119,7 @@
       <c r="Y333" s="11"/>
       <c r="Z333" s="11"/>
     </row>
-    <row r="334" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="11"/>
       <c r="B334" s="11"/>
       <c r="C334" s="11"/>
@@ -16146,7 +16147,7 @@
       <c r="Y334" s="11"/>
       <c r="Z334" s="11"/>
     </row>
-    <row r="335" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="11"/>
       <c r="B335" s="11"/>
       <c r="C335" s="11"/>
@@ -16174,7 +16175,7 @@
       <c r="Y335" s="11"/>
       <c r="Z335" s="11"/>
     </row>
-    <row r="336" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="11"/>
       <c r="B336" s="11"/>
       <c r="C336" s="11"/>
@@ -16202,7 +16203,7 @@
       <c r="Y336" s="11"/>
       <c r="Z336" s="11"/>
     </row>
-    <row r="337" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="11"/>
       <c r="B337" s="11"/>
       <c r="C337" s="11"/>
@@ -16230,7 +16231,7 @@
       <c r="Y337" s="11"/>
       <c r="Z337" s="11"/>
     </row>
-    <row r="338" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="11"/>
       <c r="B338" s="11"/>
       <c r="C338" s="11"/>
@@ -16258,7 +16259,7 @@
       <c r="Y338" s="11"/>
       <c r="Z338" s="11"/>
     </row>
-    <row r="339" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="11"/>
       <c r="B339" s="11"/>
       <c r="C339" s="11"/>
@@ -16286,7 +16287,7 @@
       <c r="Y339" s="11"/>
       <c r="Z339" s="11"/>
     </row>
-    <row r="340" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="11"/>
       <c r="B340" s="11"/>
       <c r="C340" s="11"/>
@@ -16314,7 +16315,7 @@
       <c r="Y340" s="11"/>
       <c r="Z340" s="11"/>
     </row>
-    <row r="341" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="11"/>
       <c r="B341" s="11"/>
       <c r="C341" s="11"/>
@@ -16342,7 +16343,7 @@
       <c r="Y341" s="11"/>
       <c r="Z341" s="11"/>
     </row>
-    <row r="342" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="11"/>
       <c r="B342" s="11"/>
       <c r="C342" s="11"/>
@@ -16370,7 +16371,7 @@
       <c r="Y342" s="11"/>
       <c r="Z342" s="11"/>
     </row>
-    <row r="343" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="11"/>
       <c r="B343" s="11"/>
       <c r="C343" s="11"/>
@@ -16398,7 +16399,7 @@
       <c r="Y343" s="11"/>
       <c r="Z343" s="11"/>
     </row>
-    <row r="344" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="11"/>
       <c r="B344" s="11"/>
       <c r="C344" s="11"/>
@@ -16426,7 +16427,7 @@
       <c r="Y344" s="11"/>
       <c r="Z344" s="11"/>
     </row>
-    <row r="345" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="11"/>
       <c r="B345" s="11"/>
       <c r="C345" s="11"/>
@@ -16454,7 +16455,7 @@
       <c r="Y345" s="11"/>
       <c r="Z345" s="11"/>
     </row>
-    <row r="346" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="11"/>
       <c r="B346" s="11"/>
       <c r="C346" s="11"/>
@@ -16482,7 +16483,7 @@
       <c r="Y346" s="11"/>
       <c r="Z346" s="11"/>
     </row>
-    <row r="347" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="11"/>
       <c r="B347" s="11"/>
       <c r="C347" s="11"/>
@@ -16510,7 +16511,7 @@
       <c r="Y347" s="11"/>
       <c r="Z347" s="11"/>
     </row>
-    <row r="348" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="11"/>
       <c r="B348" s="11"/>
       <c r="C348" s="11"/>
@@ -16538,7 +16539,7 @@
       <c r="Y348" s="11"/>
       <c r="Z348" s="11"/>
     </row>
-    <row r="349" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="11"/>
       <c r="B349" s="11"/>
       <c r="C349" s="11"/>
@@ -16566,7 +16567,7 @@
       <c r="Y349" s="11"/>
       <c r="Z349" s="11"/>
     </row>
-    <row r="350" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="11"/>
       <c r="B350" s="11"/>
       <c r="C350" s="11"/>
@@ -16594,7 +16595,7 @@
       <c r="Y350" s="11"/>
       <c r="Z350" s="11"/>
     </row>
-    <row r="351" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="11"/>
       <c r="B351" s="11"/>
       <c r="C351" s="11"/>
@@ -16622,7 +16623,7 @@
       <c r="Y351" s="11"/>
       <c r="Z351" s="11"/>
     </row>
-    <row r="352" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="11"/>
       <c r="B352" s="11"/>
       <c r="C352" s="11"/>
@@ -16650,7 +16651,7 @@
       <c r="Y352" s="11"/>
       <c r="Z352" s="11"/>
     </row>
-    <row r="353" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="11"/>
       <c r="B353" s="11"/>
       <c r="C353" s="11"/>
@@ -16678,7 +16679,7 @@
       <c r="Y353" s="11"/>
       <c r="Z353" s="11"/>
     </row>
-    <row r="354" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="11"/>
       <c r="B354" s="11"/>
       <c r="C354" s="11"/>
@@ -16706,7 +16707,7 @@
       <c r="Y354" s="11"/>
       <c r="Z354" s="11"/>
     </row>
-    <row r="355" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="11"/>
       <c r="B355" s="11"/>
       <c r="C355" s="11"/>
@@ -16734,7 +16735,7 @@
       <c r="Y355" s="11"/>
       <c r="Z355" s="11"/>
     </row>
-    <row r="356" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="11"/>
       <c r="B356" s="11"/>
       <c r="C356" s="11"/>
@@ -16762,7 +16763,7 @@
       <c r="Y356" s="11"/>
       <c r="Z356" s="11"/>
     </row>
-    <row r="357" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="11"/>
       <c r="B357" s="11"/>
       <c r="C357" s="11"/>
@@ -16790,7 +16791,7 @@
       <c r="Y357" s="11"/>
       <c r="Z357" s="11"/>
     </row>
-    <row r="358" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="11"/>
       <c r="B358" s="11"/>
       <c r="C358" s="11"/>
@@ -16818,7 +16819,7 @@
       <c r="Y358" s="11"/>
       <c r="Z358" s="11"/>
     </row>
-    <row r="359" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="11"/>
       <c r="B359" s="11"/>
       <c r="C359" s="11"/>
@@ -16846,7 +16847,7 @@
       <c r="Y359" s="11"/>
       <c r="Z359" s="11"/>
     </row>
-    <row r="360" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="11"/>
       <c r="B360" s="11"/>
       <c r="C360" s="11"/>
@@ -16874,7 +16875,7 @@
       <c r="Y360" s="11"/>
       <c r="Z360" s="11"/>
     </row>
-    <row r="361" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="11"/>
       <c r="B361" s="11"/>
       <c r="C361" s="11"/>
@@ -16902,7 +16903,7 @@
       <c r="Y361" s="11"/>
       <c r="Z361" s="11"/>
     </row>
-    <row r="362" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="11"/>
       <c r="B362" s="11"/>
       <c r="C362" s="11"/>
@@ -16930,7 +16931,7 @@
       <c r="Y362" s="11"/>
       <c r="Z362" s="11"/>
     </row>
-    <row r="363" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="11"/>
       <c r="B363" s="11"/>
       <c r="C363" s="11"/>
@@ -16958,7 +16959,7 @@
       <c r="Y363" s="11"/>
       <c r="Z363" s="11"/>
     </row>
-    <row r="364" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="11"/>
       <c r="B364" s="11"/>
       <c r="C364" s="11"/>
@@ -16986,7 +16987,7 @@
       <c r="Y364" s="11"/>
       <c r="Z364" s="11"/>
     </row>
-    <row r="365" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="11"/>
       <c r="B365" s="11"/>
       <c r="C365" s="11"/>
@@ -17014,7 +17015,7 @@
       <c r="Y365" s="11"/>
       <c r="Z365" s="11"/>
     </row>
-    <row r="366" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="11"/>
       <c r="B366" s="11"/>
       <c r="C366" s="11"/>
@@ -17042,7 +17043,7 @@
       <c r="Y366" s="11"/>
       <c r="Z366" s="11"/>
     </row>
-    <row r="367" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="11"/>
       <c r="B367" s="11"/>
       <c r="C367" s="11"/>
@@ -17070,7 +17071,7 @@
       <c r="Y367" s="11"/>
       <c r="Z367" s="11"/>
     </row>
-    <row r="368" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="11"/>
       <c r="B368" s="11"/>
       <c r="C368" s="11"/>
@@ -17098,7 +17099,7 @@
       <c r="Y368" s="11"/>
       <c r="Z368" s="11"/>
     </row>
-    <row r="369" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="11"/>
       <c r="B369" s="11"/>
       <c r="C369" s="11"/>
@@ -17126,7 +17127,7 @@
       <c r="Y369" s="11"/>
       <c r="Z369" s="11"/>
     </row>
-    <row r="370" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="11"/>
       <c r="B370" s="11"/>
       <c r="C370" s="11"/>
@@ -17154,7 +17155,7 @@
       <c r="Y370" s="11"/>
       <c r="Z370" s="11"/>
     </row>
-    <row r="371" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="11"/>
       <c r="B371" s="11"/>
       <c r="C371" s="11"/>
@@ -17182,7 +17183,7 @@
       <c r="Y371" s="11"/>
       <c r="Z371" s="11"/>
     </row>
-    <row r="372" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="11"/>
       <c r="B372" s="11"/>
       <c r="C372" s="11"/>
@@ -17210,7 +17211,7 @@
       <c r="Y372" s="11"/>
       <c r="Z372" s="11"/>
     </row>
-    <row r="373" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="11"/>
       <c r="B373" s="11"/>
       <c r="C373" s="11"/>
@@ -17238,7 +17239,7 @@
       <c r="Y373" s="11"/>
       <c r="Z373" s="11"/>
     </row>
-    <row r="374" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="11"/>
       <c r="B374" s="11"/>
       <c r="C374" s="11"/>
@@ -17266,7 +17267,7 @@
       <c r="Y374" s="11"/>
       <c r="Z374" s="11"/>
     </row>
-    <row r="375" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="11"/>
       <c r="B375" s="11"/>
       <c r="C375" s="11"/>
@@ -17294,7 +17295,7 @@
       <c r="Y375" s="11"/>
       <c r="Z375" s="11"/>
     </row>
-    <row r="376" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="11"/>
       <c r="B376" s="11"/>
       <c r="C376" s="11"/>
@@ -17322,7 +17323,7 @@
       <c r="Y376" s="11"/>
       <c r="Z376" s="11"/>
     </row>
-    <row r="377" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="11"/>
       <c r="B377" s="11"/>
       <c r="C377" s="11"/>
@@ -17350,7 +17351,7 @@
       <c r="Y377" s="11"/>
       <c r="Z377" s="11"/>
     </row>
-    <row r="378" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="11"/>
       <c r="B378" s="11"/>
       <c r="C378" s="11"/>
@@ -17378,7 +17379,7 @@
       <c r="Y378" s="11"/>
       <c r="Z378" s="11"/>
     </row>
-    <row r="379" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="11"/>
       <c r="B379" s="11"/>
       <c r="C379" s="11"/>
@@ -17406,7 +17407,7 @@
       <c r="Y379" s="11"/>
       <c r="Z379" s="11"/>
     </row>
-    <row r="380" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="11"/>
       <c r="B380" s="11"/>
       <c r="C380" s="11"/>
@@ -17434,7 +17435,7 @@
       <c r="Y380" s="11"/>
       <c r="Z380" s="11"/>
     </row>
-    <row r="381" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="11"/>
       <c r="B381" s="11"/>
       <c r="C381" s="11"/>
@@ -17462,7 +17463,7 @@
       <c r="Y381" s="11"/>
       <c r="Z381" s="11"/>
     </row>
-    <row r="382" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="11"/>
       <c r="B382" s="11"/>
       <c r="C382" s="11"/>
@@ -17490,7 +17491,7 @@
       <c r="Y382" s="11"/>
       <c r="Z382" s="11"/>
     </row>
-    <row r="383" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="11"/>
       <c r="B383" s="11"/>
       <c r="C383" s="11"/>
@@ -17518,7 +17519,7 @@
       <c r="Y383" s="11"/>
       <c r="Z383" s="11"/>
     </row>
-    <row r="384" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="11"/>
       <c r="B384" s="11"/>
       <c r="C384" s="11"/>
@@ -17546,7 +17547,7 @@
       <c r="Y384" s="11"/>
       <c r="Z384" s="11"/>
     </row>
-    <row r="385" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="11"/>
       <c r="B385" s="11"/>
       <c r="C385" s="11"/>
@@ -17574,7 +17575,7 @@
       <c r="Y385" s="11"/>
       <c r="Z385" s="11"/>
     </row>
-    <row r="386" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="11"/>
       <c r="B386" s="11"/>
       <c r="C386" s="11"/>
@@ -17602,7 +17603,7 @@
       <c r="Y386" s="11"/>
       <c r="Z386" s="11"/>
     </row>
-    <row r="387" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="11"/>
       <c r="B387" s="11"/>
       <c r="C387" s="11"/>
@@ -17630,7 +17631,7 @@
       <c r="Y387" s="11"/>
       <c r="Z387" s="11"/>
     </row>
-    <row r="388" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="11"/>
       <c r="B388" s="11"/>
       <c r="C388" s="11"/>
@@ -17658,7 +17659,7 @@
       <c r="Y388" s="11"/>
       <c r="Z388" s="11"/>
     </row>
-    <row r="389" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="11"/>
       <c r="B389" s="11"/>
       <c r="C389" s="11"/>
@@ -17686,7 +17687,7 @@
       <c r="Y389" s="11"/>
       <c r="Z389" s="11"/>
     </row>
-    <row r="390" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="11"/>
       <c r="B390" s="11"/>
       <c r="C390" s="11"/>
@@ -17714,7 +17715,7 @@
       <c r="Y390" s="11"/>
       <c r="Z390" s="11"/>
     </row>
-    <row r="391" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="11"/>
       <c r="B391" s="11"/>
       <c r="C391" s="11"/>
@@ -17742,7 +17743,7 @@
       <c r="Y391" s="11"/>
       <c r="Z391" s="11"/>
     </row>
-    <row r="392" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="11"/>
       <c r="B392" s="11"/>
       <c r="C392" s="11"/>
@@ -17770,7 +17771,7 @@
       <c r="Y392" s="11"/>
       <c r="Z392" s="11"/>
     </row>
-    <row r="393" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="11"/>
       <c r="B393" s="11"/>
       <c r="C393" s="11"/>
@@ -17798,7 +17799,7 @@
       <c r="Y393" s="11"/>
       <c r="Z393" s="11"/>
     </row>
-    <row r="394" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="11"/>
       <c r="B394" s="11"/>
       <c r="C394" s="11"/>
@@ -17826,7 +17827,7 @@
       <c r="Y394" s="11"/>
       <c r="Z394" s="11"/>
     </row>
-    <row r="395" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="11"/>
       <c r="B395" s="11"/>
       <c r="C395" s="11"/>
@@ -17854,7 +17855,7 @@
       <c r="Y395" s="11"/>
       <c r="Z395" s="11"/>
     </row>
-    <row r="396" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="11"/>
       <c r="B396" s="11"/>
       <c r="C396" s="11"/>
@@ -17882,7 +17883,7 @@
       <c r="Y396" s="11"/>
       <c r="Z396" s="11"/>
     </row>
-    <row r="397" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="11"/>
       <c r="B397" s="11"/>
       <c r="C397" s="11"/>
@@ -17910,7 +17911,7 @@
       <c r="Y397" s="11"/>
       <c r="Z397" s="11"/>
     </row>
-    <row r="398" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="11"/>
       <c r="B398" s="11"/>
       <c r="C398" s="11"/>
@@ -17938,7 +17939,7 @@
       <c r="Y398" s="11"/>
       <c r="Z398" s="11"/>
     </row>
-    <row r="399" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="11"/>
       <c r="B399" s="11"/>
       <c r="C399" s="11"/>
@@ -17966,7 +17967,7 @@
       <c r="Y399" s="11"/>
       <c r="Z399" s="11"/>
     </row>
-    <row r="400" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="11"/>
       <c r="B400" s="11"/>
       <c r="C400" s="11"/>
@@ -17994,7 +17995,7 @@
       <c r="Y400" s="11"/>
       <c r="Z400" s="11"/>
     </row>
-    <row r="401" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="11"/>
       <c r="B401" s="11"/>
       <c r="C401" s="11"/>
@@ -18022,7 +18023,7 @@
       <c r="Y401" s="11"/>
       <c r="Z401" s="11"/>
     </row>
-    <row r="402" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="11"/>
       <c r="B402" s="11"/>
       <c r="C402" s="11"/>
@@ -18050,7 +18051,7 @@
       <c r="Y402" s="11"/>
       <c r="Z402" s="11"/>
     </row>
-    <row r="403" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="11"/>
       <c r="B403" s="11"/>
       <c r="C403" s="11"/>
@@ -18078,7 +18079,7 @@
       <c r="Y403" s="11"/>
       <c r="Z403" s="11"/>
     </row>
-    <row r="404" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="11"/>
       <c r="B404" s="11"/>
       <c r="C404" s="11"/>
@@ -18106,7 +18107,7 @@
       <c r="Y404" s="11"/>
       <c r="Z404" s="11"/>
     </row>
-    <row r="405" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="11"/>
       <c r="B405" s="11"/>
       <c r="C405" s="11"/>
@@ -18134,7 +18135,7 @@
       <c r="Y405" s="11"/>
       <c r="Z405" s="11"/>
     </row>
-    <row r="406" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="11"/>
       <c r="B406" s="11"/>
       <c r="C406" s="11"/>
@@ -18162,7 +18163,7 @@
       <c r="Y406" s="11"/>
       <c r="Z406" s="11"/>
     </row>
-    <row r="407" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="11"/>
       <c r="B407" s="11"/>
       <c r="C407" s="11"/>
@@ -18190,7 +18191,7 @@
       <c r="Y407" s="11"/>
       <c r="Z407" s="11"/>
     </row>
-    <row r="408" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="11"/>
       <c r="B408" s="11"/>
       <c r="C408" s="11"/>
@@ -18218,7 +18219,7 @@
       <c r="Y408" s="11"/>
       <c r="Z408" s="11"/>
     </row>
-    <row r="409" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="11"/>
       <c r="B409" s="11"/>
       <c r="C409" s="11"/>
@@ -18246,7 +18247,7 @@
       <c r="Y409" s="11"/>
       <c r="Z409" s="11"/>
     </row>
-    <row r="410" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="11"/>
       <c r="B410" s="11"/>
       <c r="C410" s="11"/>
@@ -18274,7 +18275,7 @@
       <c r="Y410" s="11"/>
       <c r="Z410" s="11"/>
     </row>
-    <row r="411" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="11"/>
       <c r="B411" s="11"/>
       <c r="C411" s="11"/>
@@ -18302,7 +18303,7 @@
       <c r="Y411" s="11"/>
       <c r="Z411" s="11"/>
     </row>
-    <row r="412" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="11"/>
       <c r="B412" s="11"/>
       <c r="C412" s="11"/>
@@ -18330,7 +18331,7 @@
       <c r="Y412" s="11"/>
       <c r="Z412" s="11"/>
     </row>
-    <row r="413" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="11"/>
       <c r="B413" s="11"/>
       <c r="C413" s="11"/>
@@ -18358,7 +18359,7 @@
       <c r="Y413" s="11"/>
       <c r="Z413" s="11"/>
     </row>
-    <row r="414" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="11"/>
       <c r="B414" s="11"/>
       <c r="C414" s="11"/>
@@ -18386,7 +18387,7 @@
       <c r="Y414" s="11"/>
       <c r="Z414" s="11"/>
     </row>
-    <row r="415" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="11"/>
       <c r="B415" s="11"/>
       <c r="C415" s="11"/>
@@ -18414,7 +18415,7 @@
       <c r="Y415" s="11"/>
       <c r="Z415" s="11"/>
     </row>
-    <row r="416" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="11"/>
       <c r="B416" s="11"/>
       <c r="C416" s="11"/>
@@ -18442,7 +18443,7 @@
       <c r="Y416" s="11"/>
       <c r="Z416" s="11"/>
     </row>
-    <row r="417" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="11"/>
       <c r="B417" s="11"/>
       <c r="C417" s="11"/>
@@ -18470,7 +18471,7 @@
       <c r="Y417" s="11"/>
       <c r="Z417" s="11"/>
     </row>
-    <row r="418" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="11"/>
       <c r="B418" s="11"/>
       <c r="C418" s="11"/>
@@ -18498,7 +18499,7 @@
       <c r="Y418" s="11"/>
       <c r="Z418" s="11"/>
     </row>
-    <row r="419" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="11"/>
       <c r="B419" s="11"/>
       <c r="C419" s="11"/>
@@ -18526,7 +18527,7 @@
       <c r="Y419" s="11"/>
       <c r="Z419" s="11"/>
     </row>
-    <row r="420" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="11"/>
       <c r="B420" s="11"/>
       <c r="C420" s="11"/>
@@ -18554,7 +18555,7 @@
       <c r="Y420" s="11"/>
       <c r="Z420" s="11"/>
     </row>
-    <row r="421" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="11"/>
       <c r="B421" s="11"/>
       <c r="C421" s="11"/>
@@ -18582,7 +18583,7 @@
       <c r="Y421" s="11"/>
       <c r="Z421" s="11"/>
     </row>
-    <row r="422" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="11"/>
       <c r="B422" s="11"/>
       <c r="C422" s="11"/>
@@ -18610,7 +18611,7 @@
       <c r="Y422" s="11"/>
       <c r="Z422" s="11"/>
     </row>
-    <row r="423" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="11"/>
       <c r="B423" s="11"/>
       <c r="C423" s="11"/>
@@ -18638,7 +18639,7 @@
       <c r="Y423" s="11"/>
       <c r="Z423" s="11"/>
     </row>
-    <row r="424" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="11"/>
       <c r="B424" s="11"/>
       <c r="C424" s="11"/>
@@ -18666,7 +18667,7 @@
       <c r="Y424" s="11"/>
       <c r="Z424" s="11"/>
     </row>
-    <row r="425" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="11"/>
       <c r="B425" s="11"/>
       <c r="C425" s="11"/>
@@ -18694,7 +18695,7 @@
       <c r="Y425" s="11"/>
       <c r="Z425" s="11"/>
     </row>
-    <row r="426" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="11"/>
       <c r="B426" s="11"/>
       <c r="C426" s="11"/>
@@ -18722,7 +18723,7 @@
       <c r="Y426" s="11"/>
       <c r="Z426" s="11"/>
     </row>
-    <row r="427" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="11"/>
       <c r="B427" s="11"/>
       <c r="C427" s="11"/>
@@ -18750,7 +18751,7 @@
       <c r="Y427" s="11"/>
       <c r="Z427" s="11"/>
     </row>
-    <row r="428" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="11"/>
       <c r="B428" s="11"/>
       <c r="C428" s="11"/>
@@ -18778,7 +18779,7 @@
       <c r="Y428" s="11"/>
       <c r="Z428" s="11"/>
     </row>
-    <row r="429" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="11"/>
       <c r="B429" s="11"/>
       <c r="C429" s="11"/>
@@ -18806,7 +18807,7 @@
       <c r="Y429" s="11"/>
       <c r="Z429" s="11"/>
     </row>
-    <row r="430" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="11"/>
       <c r="B430" s="11"/>
       <c r="C430" s="11"/>
@@ -18834,7 +18835,7 @@
       <c r="Y430" s="11"/>
       <c r="Z430" s="11"/>
     </row>
-    <row r="431" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="11"/>
       <c r="B431" s="11"/>
       <c r="C431" s="11"/>
@@ -18862,7 +18863,7 @@
       <c r="Y431" s="11"/>
       <c r="Z431" s="11"/>
     </row>
-    <row r="432" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="11"/>
       <c r="B432" s="11"/>
       <c r="C432" s="11"/>
@@ -18890,7 +18891,7 @@
       <c r="Y432" s="11"/>
       <c r="Z432" s="11"/>
     </row>
-    <row r="433" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="11"/>
       <c r="B433" s="11"/>
       <c r="C433" s="11"/>
@@ -18918,7 +18919,7 @@
       <c r="Y433" s="11"/>
       <c r="Z433" s="11"/>
     </row>
-    <row r="434" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="11"/>
       <c r="B434" s="11"/>
       <c r="C434" s="11"/>
@@ -18946,7 +18947,7 @@
       <c r="Y434" s="11"/>
       <c r="Z434" s="11"/>
     </row>
-    <row r="435" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="11"/>
       <c r="B435" s="11"/>
       <c r="C435" s="11"/>
@@ -18974,7 +18975,7 @@
       <c r="Y435" s="11"/>
       <c r="Z435" s="11"/>
     </row>
-    <row r="436" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="11"/>
       <c r="B436" s="11"/>
       <c r="C436" s="11"/>
@@ -19002,7 +19003,7 @@
       <c r="Y436" s="11"/>
       <c r="Z436" s="11"/>
     </row>
-    <row r="437" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="11"/>
       <c r="B437" s="11"/>
       <c r="C437" s="11"/>
@@ -19030,7 +19031,7 @@
       <c r="Y437" s="11"/>
       <c r="Z437" s="11"/>
     </row>
-    <row r="438" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="11"/>
       <c r="B438" s="11"/>
       <c r="C438" s="11"/>
@@ -19058,7 +19059,7 @@
       <c r="Y438" s="11"/>
       <c r="Z438" s="11"/>
     </row>
-    <row r="439" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="11"/>
       <c r="B439" s="11"/>
       <c r="C439" s="11"/>
@@ -19086,7 +19087,7 @@
       <c r="Y439" s="11"/>
       <c r="Z439" s="11"/>
     </row>
-    <row r="440" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="11"/>
       <c r="B440" s="11"/>
       <c r="C440" s="11"/>
@@ -19114,7 +19115,7 @@
       <c r="Y440" s="11"/>
       <c r="Z440" s="11"/>
     </row>
-    <row r="441" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="11"/>
       <c r="B441" s="11"/>
       <c r="C441" s="11"/>
@@ -19142,7 +19143,7 @@
       <c r="Y441" s="11"/>
       <c r="Z441" s="11"/>
     </row>
-    <row r="442" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="11"/>
       <c r="B442" s="11"/>
       <c r="C442" s="11"/>
@@ -19170,7 +19171,7 @@
       <c r="Y442" s="11"/>
       <c r="Z442" s="11"/>
     </row>
-    <row r="443" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="11"/>
       <c r="B443" s="11"/>
       <c r="C443" s="11"/>
@@ -19198,7 +19199,7 @@
       <c r="Y443" s="11"/>
       <c r="Z443" s="11"/>
     </row>
-    <row r="444" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="11"/>
       <c r="B444" s="11"/>
       <c r="C444" s="11"/>
@@ -19226,7 +19227,7 @@
       <c r="Y444" s="11"/>
       <c r="Z444" s="11"/>
     </row>
-    <row r="445" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="11"/>
       <c r="B445" s="11"/>
       <c r="C445" s="11"/>
@@ -19254,7 +19255,7 @@
       <c r="Y445" s="11"/>
       <c r="Z445" s="11"/>
     </row>
-    <row r="446" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="11"/>
       <c r="B446" s="11"/>
       <c r="C446" s="11"/>
@@ -19282,7 +19283,7 @@
       <c r="Y446" s="11"/>
       <c r="Z446" s="11"/>
     </row>
-    <row r="447" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="11"/>
       <c r="B447" s="11"/>
       <c r="C447" s="11"/>
@@ -19310,7 +19311,7 @@
       <c r="Y447" s="11"/>
       <c r="Z447" s="11"/>
     </row>
-    <row r="448" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="11"/>
       <c r="B448" s="11"/>
       <c r="C448" s="11"/>
@@ -19338,7 +19339,7 @@
       <c r="Y448" s="11"/>
       <c r="Z448" s="11"/>
     </row>
-    <row r="449" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="11"/>
       <c r="B449" s="11"/>
       <c r="C449" s="11"/>
@@ -19366,7 +19367,7 @@
       <c r="Y449" s="11"/>
       <c r="Z449" s="11"/>
     </row>
-    <row r="450" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="11"/>
       <c r="B450" s="11"/>
       <c r="C450" s="11"/>
@@ -19394,7 +19395,7 @@
       <c r="Y450" s="11"/>
       <c r="Z450" s="11"/>
     </row>
-    <row r="451" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="11"/>
       <c r="B451" s="11"/>
       <c r="C451" s="11"/>
@@ -19422,7 +19423,7 @@
       <c r="Y451" s="11"/>
       <c r="Z451" s="11"/>
     </row>
-    <row r="452" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="11"/>
       <c r="B452" s="11"/>
       <c r="C452" s="11"/>
@@ -19450,7 +19451,7 @@
       <c r="Y452" s="11"/>
       <c r="Z452" s="11"/>
     </row>
-    <row r="453" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="11"/>
       <c r="B453" s="11"/>
       <c r="C453" s="11"/>
@@ -19478,7 +19479,7 @@
       <c r="Y453" s="11"/>
       <c r="Z453" s="11"/>
     </row>
-    <row r="454" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="11"/>
       <c r="B454" s="11"/>
       <c r="C454" s="11"/>
@@ -19506,7 +19507,7 @@
       <c r="Y454" s="11"/>
       <c r="Z454" s="11"/>
     </row>
-    <row r="455" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="11"/>
       <c r="B455" s="11"/>
       <c r="C455" s="11"/>
@@ -19534,7 +19535,7 @@
       <c r="Y455" s="11"/>
       <c r="Z455" s="11"/>
     </row>
-    <row r="456" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="11"/>
       <c r="B456" s="11"/>
       <c r="C456" s="11"/>
@@ -19562,7 +19563,7 @@
       <c r="Y456" s="11"/>
       <c r="Z456" s="11"/>
     </row>
-    <row r="457" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="11"/>
       <c r="B457" s="11"/>
       <c r="C457" s="11"/>
@@ -19590,7 +19591,7 @@
       <c r="Y457" s="11"/>
       <c r="Z457" s="11"/>
     </row>
-    <row r="458" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="11"/>
       <c r="B458" s="11"/>
       <c r="C458" s="11"/>
@@ -19618,7 +19619,7 @@
       <c r="Y458" s="11"/>
       <c r="Z458" s="11"/>
     </row>
-    <row r="459" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="11"/>
       <c r="B459" s="11"/>
       <c r="C459" s="11"/>
@@ -19646,7 +19647,7 @@
       <c r="Y459" s="11"/>
       <c r="Z459" s="11"/>
     </row>
-    <row r="460" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="11"/>
       <c r="B460" s="11"/>
       <c r="C460" s="11"/>
@@ -19674,7 +19675,7 @@
       <c r="Y460" s="11"/>
       <c r="Z460" s="11"/>
     </row>
-    <row r="461" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="11"/>
       <c r="B461" s="11"/>
       <c r="C461" s="11"/>
@@ -19702,7 +19703,7 @@
       <c r="Y461" s="11"/>
       <c r="Z461" s="11"/>
     </row>
-    <row r="462" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="11"/>
       <c r="B462" s="11"/>
       <c r="C462" s="11"/>
@@ -19730,7 +19731,7 @@
       <c r="Y462" s="11"/>
       <c r="Z462" s="11"/>
     </row>
-    <row r="463" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="11"/>
       <c r="B463" s="11"/>
       <c r="C463" s="11"/>
@@ -19758,7 +19759,7 @@
       <c r="Y463" s="11"/>
       <c r="Z463" s="11"/>
     </row>
-    <row r="464" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="11"/>
       <c r="B464" s="11"/>
       <c r="C464" s="11"/>
@@ -19786,7 +19787,7 @@
       <c r="Y464" s="11"/>
       <c r="Z464" s="11"/>
     </row>
-    <row r="465" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="11"/>
       <c r="B465" s="11"/>
       <c r="C465" s="11"/>
@@ -19814,7 +19815,7 @@
       <c r="Y465" s="11"/>
       <c r="Z465" s="11"/>
     </row>
-    <row r="466" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="11"/>
       <c r="B466" s="11"/>
       <c r="C466" s="11"/>
@@ -19842,7 +19843,7 @@
       <c r="Y466" s="11"/>
       <c r="Z466" s="11"/>
     </row>
-    <row r="467" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="11"/>
       <c r="B467" s="11"/>
       <c r="C467" s="11"/>
@@ -19870,7 +19871,7 @@
       <c r="Y467" s="11"/>
       <c r="Z467" s="11"/>
     </row>
-    <row r="468" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="11"/>
       <c r="B468" s="11"/>
       <c r="C468" s="11"/>
@@ -19898,7 +19899,7 @@
       <c r="Y468" s="11"/>
       <c r="Z468" s="11"/>
     </row>
-    <row r="469" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="11"/>
       <c r="B469" s="11"/>
       <c r="C469" s="11"/>
@@ -19926,7 +19927,7 @@
       <c r="Y469" s="11"/>
       <c r="Z469" s="11"/>
     </row>
-    <row r="470" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="11"/>
       <c r="B470" s="11"/>
       <c r="C470" s="11"/>
@@ -19954,7 +19955,7 @@
       <c r="Y470" s="11"/>
       <c r="Z470" s="11"/>
     </row>
-    <row r="471" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="11"/>
       <c r="B471" s="11"/>
       <c r="C471" s="11"/>
@@ -19982,7 +19983,7 @@
       <c r="Y471" s="11"/>
       <c r="Z471" s="11"/>
     </row>
-    <row r="472" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="11"/>
       <c r="B472" s="11"/>
       <c r="C472" s="11"/>
@@ -20010,7 +20011,7 @@
       <c r="Y472" s="11"/>
       <c r="Z472" s="11"/>
     </row>
-    <row r="473" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="11"/>
       <c r="B473" s="11"/>
       <c r="C473" s="11"/>
@@ -20038,7 +20039,7 @@
       <c r="Y473" s="11"/>
       <c r="Z473" s="11"/>
     </row>
-    <row r="474" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="11"/>
       <c r="B474" s="11"/>
       <c r="C474" s="11"/>
@@ -20066,7 +20067,7 @@
       <c r="Y474" s="11"/>
       <c r="Z474" s="11"/>
     </row>
-    <row r="475" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="11"/>
       <c r="B475" s="11"/>
       <c r="C475" s="11"/>
@@ -20094,7 +20095,7 @@
       <c r="Y475" s="11"/>
       <c r="Z475" s="11"/>
     </row>
-    <row r="476" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="11"/>
       <c r="B476" s="11"/>
       <c r="C476" s="11"/>
@@ -20122,7 +20123,7 @@
       <c r="Y476" s="11"/>
       <c r="Z476" s="11"/>
     </row>
-    <row r="477" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="11"/>
       <c r="B477" s="11"/>
       <c r="C477" s="11"/>
@@ -20150,7 +20151,7 @@
       <c r="Y477" s="11"/>
       <c r="Z477" s="11"/>
     </row>
-    <row r="478" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="11"/>
       <c r="B478" s="11"/>
       <c r="C478" s="11"/>
@@ -20178,7 +20179,7 @@
       <c r="Y478" s="11"/>
       <c r="Z478" s="11"/>
     </row>
-    <row r="479" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="11"/>
       <c r="B479" s="11"/>
       <c r="C479" s="11"/>
@@ -20206,7 +20207,7 @@
       <c r="Y479" s="11"/>
       <c r="Z479" s="11"/>
     </row>
-    <row r="480" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="11"/>
       <c r="B480" s="11"/>
       <c r="C480" s="11"/>
@@ -20234,7 +20235,7 @@
       <c r="Y480" s="11"/>
       <c r="Z480" s="11"/>
     </row>
-    <row r="481" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="11"/>
       <c r="B481" s="11"/>
       <c r="C481" s="11"/>
@@ -20262,7 +20263,7 @@
       <c r="Y481" s="11"/>
       <c r="Z481" s="11"/>
     </row>
-    <row r="482" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="11"/>
       <c r="B482" s="11"/>
       <c r="C482" s="11"/>
@@ -20290,7 +20291,7 @@
       <c r="Y482" s="11"/>
       <c r="Z482" s="11"/>
     </row>
-    <row r="483" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="11"/>
       <c r="B483" s="11"/>
       <c r="C483" s="11"/>
@@ -20318,7 +20319,7 @@
       <c r="Y483" s="11"/>
       <c r="Z483" s="11"/>
     </row>
-    <row r="484" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="11"/>
       <c r="B484" s="11"/>
       <c r="C484" s="11"/>
@@ -20346,7 +20347,7 @@
       <c r="Y484" s="11"/>
       <c r="Z484" s="11"/>
     </row>
-    <row r="485" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="11"/>
       <c r="B485" s="11"/>
       <c r="C485" s="11"/>
@@ -20374,7 +20375,7 @@
       <c r="Y485" s="11"/>
       <c r="Z485" s="11"/>
     </row>
-    <row r="486" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="11"/>
       <c r="B486" s="11"/>
       <c r="C486" s="11"/>
@@ -20402,7 +20403,7 @@
       <c r="Y486" s="11"/>
       <c r="Z486" s="11"/>
     </row>
-    <row r="487" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="11"/>
       <c r="B487" s="11"/>
       <c r="C487" s="11"/>
@@ -20430,7 +20431,7 @@
       <c r="Y487" s="11"/>
       <c r="Z487" s="11"/>
     </row>
-    <row r="488" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="11"/>
       <c r="B488" s="11"/>
       <c r="C488" s="11"/>
@@ -20458,7 +20459,7 @@
       <c r="Y488" s="11"/>
       <c r="Z488" s="11"/>
     </row>
-    <row r="489" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="11"/>
       <c r="B489" s="11"/>
       <c r="C489" s="11"/>
@@ -20486,7 +20487,7 @@
       <c r="Y489" s="11"/>
       <c r="Z489" s="11"/>
     </row>
-    <row r="490" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="11"/>
       <c r="B490" s="11"/>
       <c r="C490" s="11"/>
@@ -20514,7 +20515,7 @@
       <c r="Y490" s="11"/>
       <c r="Z490" s="11"/>
     </row>
-    <row r="491" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="11"/>
       <c r="B491" s="11"/>
       <c r="C491" s="11"/>
@@ -20542,7 +20543,7 @@
       <c r="Y491" s="11"/>
       <c r="Z491" s="11"/>
     </row>
-    <row r="492" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="11"/>
       <c r="B492" s="11"/>
       <c r="C492" s="11"/>
@@ -20570,7 +20571,7 @@
       <c r="Y492" s="11"/>
       <c r="Z492" s="11"/>
     </row>
-    <row r="493" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="11"/>
       <c r="B493" s="11"/>
       <c r="C493" s="11"/>
@@ -20598,7 +20599,7 @@
       <c r="Y493" s="11"/>
       <c r="Z493" s="11"/>
     </row>
-    <row r="494" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="11"/>
       <c r="B494" s="11"/>
       <c r="C494" s="11"/>
@@ -20626,7 +20627,7 @@
       <c r="Y494" s="11"/>
       <c r="Z494" s="11"/>
     </row>
-    <row r="495" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="11"/>
       <c r="B495" s="11"/>
       <c r="C495" s="11"/>
@@ -20654,7 +20655,7 @@
       <c r="Y495" s="11"/>
       <c r="Z495" s="11"/>
     </row>
-    <row r="496" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="11"/>
       <c r="B496" s="11"/>
       <c r="C496" s="11"/>
@@ -20682,7 +20683,7 @@
       <c r="Y496" s="11"/>
       <c r="Z496" s="11"/>
     </row>
-    <row r="497" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="11"/>
       <c r="B497" s="11"/>
       <c r="C497" s="11"/>
@@ -20710,7 +20711,7 @@
       <c r="Y497" s="11"/>
       <c r="Z497" s="11"/>
     </row>
-    <row r="498" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="11"/>
       <c r="B498" s="11"/>
       <c r="C498" s="11"/>
@@ -20738,7 +20739,7 @@
       <c r="Y498" s="11"/>
       <c r="Z498" s="11"/>
     </row>
-    <row r="499" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="11"/>
       <c r="B499" s="11"/>
       <c r="C499" s="11"/>
@@ -20766,7 +20767,7 @@
       <c r="Y499" s="11"/>
       <c r="Z499" s="11"/>
     </row>
-    <row r="500" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="11"/>
       <c r="B500" s="11"/>
       <c r="C500" s="11"/>
@@ -20794,7 +20795,7 @@
       <c r="Y500" s="11"/>
       <c r="Z500" s="11"/>
     </row>
-    <row r="501" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="11"/>
       <c r="B501" s="11"/>
       <c r="C501" s="11"/>
@@ -20822,7 +20823,7 @@
       <c r="Y501" s="11"/>
       <c r="Z501" s="11"/>
     </row>
-    <row r="502" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="11"/>
       <c r="B502" s="11"/>
       <c r="C502" s="11"/>
@@ -20850,7 +20851,7 @@
       <c r="Y502" s="11"/>
       <c r="Z502" s="11"/>
     </row>
-    <row r="503" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="11"/>
       <c r="B503" s="11"/>
       <c r="C503" s="11"/>
@@ -20878,7 +20879,7 @@
       <c r="Y503" s="11"/>
       <c r="Z503" s="11"/>
     </row>
-    <row r="504" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="11"/>
       <c r="B504" s="11"/>
       <c r="C504" s="11"/>
@@ -20906,7 +20907,7 @@
       <c r="Y504" s="11"/>
       <c r="Z504" s="11"/>
     </row>
-    <row r="505" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="11"/>
       <c r="B505" s="11"/>
       <c r="C505" s="11"/>
@@ -20934,7 +20935,7 @@
       <c r="Y505" s="11"/>
       <c r="Z505" s="11"/>
     </row>
-    <row r="506" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="11"/>
       <c r="B506" s="11"/>
       <c r="C506" s="11"/>
@@ -20962,7 +20963,7 @@
       <c r="Y506" s="11"/>
       <c r="Z506" s="11"/>
     </row>
-    <row r="507" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="11"/>
       <c r="B507" s="11"/>
       <c r="C507" s="11"/>
@@ -20990,7 +20991,7 @@
       <c r="Y507" s="11"/>
       <c r="Z507" s="11"/>
     </row>
-    <row r="508" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="11"/>
       <c r="B508" s="11"/>
       <c r="C508" s="11"/>
@@ -21018,7 +21019,7 @@
       <c r="Y508" s="11"/>
       <c r="Z508" s="11"/>
     </row>
-    <row r="509" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="11"/>
       <c r="B509" s="11"/>
       <c r="C509" s="11"/>
@@ -21046,7 +21047,7 @@
       <c r="Y509" s="11"/>
       <c r="Z509" s="11"/>
     </row>
-    <row r="510" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="11"/>
       <c r="B510" s="11"/>
       <c r="C510" s="11"/>
@@ -21074,7 +21075,7 @@
       <c r="Y510" s="11"/>
       <c r="Z510" s="11"/>
     </row>
-    <row r="511" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="11"/>
       <c r="B511" s="11"/>
       <c r="C511" s="11"/>
@@ -21102,7 +21103,7 @@
       <c r="Y511" s="11"/>
       <c r="Z511" s="11"/>
     </row>
-    <row r="512" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="11"/>
       <c r="B512" s="11"/>
       <c r="C512" s="11"/>
@@ -21130,7 +21131,7 @@
       <c r="Y512" s="11"/>
       <c r="Z512" s="11"/>
     </row>
-    <row r="513" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="11"/>
       <c r="B513" s="11"/>
       <c r="C513" s="11"/>
@@ -21158,7 +21159,7 @@
       <c r="Y513" s="11"/>
       <c r="Z513" s="11"/>
     </row>
-    <row r="514" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="11"/>
       <c r="B514" s="11"/>
       <c r="C514" s="11"/>
@@ -21186,7 +21187,7 @@
       <c r="Y514" s="11"/>
       <c r="Z514" s="11"/>
     </row>
-    <row r="515" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="11"/>
       <c r="B515" s="11"/>
       <c r="C515" s="11"/>
@@ -21214,7 +21215,7 @@
       <c r="Y515" s="11"/>
       <c r="Z515" s="11"/>
     </row>
-    <row r="516" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="11"/>
       <c r="B516" s="11"/>
       <c r="C516" s="11"/>
@@ -21242,7 +21243,7 @@
       <c r="Y516" s="11"/>
       <c r="Z516" s="11"/>
     </row>
-    <row r="517" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="11"/>
       <c r="B517" s="11"/>
       <c r="C517" s="11"/>
@@ -21270,7 +21271,7 @@
       <c r="Y517" s="11"/>
       <c r="Z517" s="11"/>
     </row>
-    <row r="518" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="11"/>
       <c r="B518" s="11"/>
       <c r="C518" s="11"/>
@@ -21298,7 +21299,7 @@
       <c r="Y518" s="11"/>
       <c r="Z518" s="11"/>
     </row>
-    <row r="519" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="11"/>
       <c r="B519" s="11"/>
       <c r="C519" s="11"/>
@@ -21326,7 +21327,7 @@
       <c r="Y519" s="11"/>
       <c r="Z519" s="11"/>
     </row>
-    <row r="520" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="11"/>
       <c r="B520" s="11"/>
       <c r="C520" s="11"/>
@@ -21354,7 +21355,7 @@
       <c r="Y520" s="11"/>
       <c r="Z520" s="11"/>
     </row>
-    <row r="521" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="11"/>
       <c r="B521" s="11"/>
       <c r="C521" s="11"/>
@@ -21382,7 +21383,7 @@
       <c r="Y521" s="11"/>
       <c r="Z521" s="11"/>
     </row>
-    <row r="522" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="11"/>
       <c r="B522" s="11"/>
       <c r="C522" s="11"/>
@@ -21410,7 +21411,7 @@
       <c r="Y522" s="11"/>
       <c r="Z522" s="11"/>
     </row>
-    <row r="523" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="11"/>
       <c r="B523" s="11"/>
       <c r="C523" s="11"/>
@@ -21438,7 +21439,7 @@
       <c r="Y523" s="11"/>
       <c r="Z523" s="11"/>
     </row>
-    <row r="524" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="11"/>
       <c r="B524" s="11"/>
       <c r="C524" s="11"/>
@@ -21466,7 +21467,7 @@
       <c r="Y524" s="11"/>
       <c r="Z524" s="11"/>
     </row>
-    <row r="525" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="11"/>
       <c r="B525" s="11"/>
       <c r="C525" s="11"/>
@@ -21494,7 +21495,7 @@
       <c r="Y525" s="11"/>
       <c r="Z525" s="11"/>
     </row>
-    <row r="526" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="11"/>
       <c r="B526" s="11"/>
       <c r="C526" s="11"/>
@@ -21522,7 +21523,7 @@
       <c r="Y526" s="11"/>
       <c r="Z526" s="11"/>
     </row>
-    <row r="527" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="11"/>
       <c r="B527" s="11"/>
       <c r="C527" s="11"/>
@@ -21550,7 +21551,7 @@
       <c r="Y527" s="11"/>
       <c r="Z527" s="11"/>
     </row>
-    <row r="528" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="11"/>
       <c r="B528" s="11"/>
       <c r="C528" s="11"/>
@@ -21578,7 +21579,7 @@
       <c r="Y528" s="11"/>
       <c r="Z528" s="11"/>
     </row>
-    <row r="529" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="11"/>
       <c r="B529" s="11"/>
       <c r="C529" s="11"/>
@@ -21606,7 +21607,7 @@
       <c r="Y529" s="11"/>
       <c r="Z529" s="11"/>
     </row>
-    <row r="530" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="11"/>
       <c r="B530" s="11"/>
       <c r="C530" s="11"/>
@@ -21634,7 +21635,7 @@
       <c r="Y530" s="11"/>
       <c r="Z530" s="11"/>
     </row>
-    <row r="531" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="11"/>
       <c r="B531" s="11"/>
       <c r="C531" s="11"/>
@@ -21662,7 +21663,7 @@
       <c r="Y531" s="11"/>
       <c r="Z531" s="11"/>
     </row>
-    <row r="532" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="11"/>
       <c r="B532" s="11"/>
       <c r="C532" s="11"/>
@@ -21690,7 +21691,7 @@
       <c r="Y532" s="11"/>
       <c r="Z532" s="11"/>
     </row>
-    <row r="533" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="11"/>
       <c r="B533" s="11"/>
       <c r="C533" s="11"/>
@@ -21718,7 +21719,7 @@
       <c r="Y533" s="11"/>
       <c r="Z533" s="11"/>
     </row>
-    <row r="534" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="11"/>
       <c r="B534" s="11"/>
       <c r="C534" s="11"/>
@@ -21746,7 +21747,7 @@
       <c r="Y534" s="11"/>
       <c r="Z534" s="11"/>
     </row>
-    <row r="535" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="11"/>
       <c r="B535" s="11"/>
       <c r="C535" s="11"/>
@@ -21774,7 +21775,7 @@
       <c r="Y535" s="11"/>
       <c r="Z535" s="11"/>
     </row>
-    <row r="536" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="11"/>
       <c r="B536" s="11"/>
       <c r="C536" s="11"/>
@@ -21802,7 +21803,7 @@
       <c r="Y536" s="11"/>
       <c r="Z536" s="11"/>
     </row>
-    <row r="537" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="11"/>
       <c r="B537" s="11"/>
       <c r="C537" s="11"/>
@@ -21830,7 +21831,7 @@
       <c r="Y537" s="11"/>
       <c r="Z537" s="11"/>
     </row>
-    <row r="538" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="11"/>
       <c r="B538" s="11"/>
       <c r="C538" s="11"/>
@@ -21858,7 +21859,7 @@
       <c r="Y538" s="11"/>
       <c r="Z538" s="11"/>
     </row>
-    <row r="539" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="11"/>
       <c r="B539" s="11"/>
       <c r="C539" s="11"/>
@@ -21886,7 +21887,7 @@
       <c r="Y539" s="11"/>
       <c r="Z539" s="11"/>
     </row>
-    <row r="540" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="11"/>
       <c r="B540" s="11"/>
       <c r="C540" s="11"/>
@@ -21914,7 +21915,7 @@
       <c r="Y540" s="11"/>
       <c r="Z540" s="11"/>
     </row>
-    <row r="541" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="11"/>
       <c r="B541" s="11"/>
       <c r="C541" s="11"/>
@@ -21942,7 +21943,7 @@
       <c r="Y541" s="11"/>
       <c r="Z541" s="11"/>
     </row>
-    <row r="542" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="11"/>
       <c r="B542" s="11"/>
       <c r="C542" s="11"/>
@@ -21970,7 +21971,7 @@
       <c r="Y542" s="11"/>
       <c r="Z542" s="11"/>
     </row>
-    <row r="543" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="11"/>
       <c r="B543" s="11"/>
       <c r="C543" s="11"/>
@@ -21998,7 +21999,7 @@
       <c r="Y543" s="11"/>
       <c r="Z543" s="11"/>
     </row>
-    <row r="544" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="11"/>
       <c r="B544" s="11"/>
       <c r="C544" s="11"/>
@@ -22026,7 +22027,7 @@
       <c r="Y544" s="11"/>
       <c r="Z544" s="11"/>
     </row>
-    <row r="545" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="11"/>
       <c r="B545" s="11"/>
       <c r="C545" s="11"/>
@@ -22054,7 +22055,7 @@
       <c r="Y545" s="11"/>
       <c r="Z545" s="11"/>
     </row>
-    <row r="546" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="11"/>
       <c r="B546" s="11"/>
       <c r="C546" s="11"/>
@@ -22082,7 +22083,7 @@
       <c r="Y546" s="11"/>
       <c r="Z546" s="11"/>
     </row>
-    <row r="547" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="11"/>
       <c r="B547" s="11"/>
       <c r="C547" s="11"/>
@@ -22110,7 +22111,7 @@
       <c r="Y547" s="11"/>
       <c r="Z547" s="11"/>
     </row>
-    <row r="548" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="11"/>
       <c r="B548" s="11"/>
       <c r="C548" s="11"/>
@@ -22138,7 +22139,7 @@
       <c r="Y548" s="11"/>
       <c r="Z548" s="11"/>
     </row>
-    <row r="549" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="11"/>
       <c r="B549" s="11"/>
       <c r="C549" s="11"/>
@@ -22166,7 +22167,7 @@
       <c r="Y549" s="11"/>
       <c r="Z549" s="11"/>
     </row>
-    <row r="550" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="11"/>
       <c r="B550" s="11"/>
       <c r="C550" s="11"/>
@@ -22194,7 +22195,7 @@
       <c r="Y550" s="11"/>
       <c r="Z550" s="11"/>
     </row>
-    <row r="551" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="11"/>
       <c r="B551" s="11"/>
       <c r="C551" s="11"/>
@@ -22222,7 +22223,7 @@
       <c r="Y551" s="11"/>
       <c r="Z551" s="11"/>
     </row>
-    <row r="552" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="11"/>
       <c r="B552" s="11"/>
       <c r="C552" s="11"/>
@@ -22250,7 +22251,7 @@
       <c r="Y552" s="11"/>
       <c r="Z552" s="11"/>
     </row>
-    <row r="553" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="11"/>
       <c r="B553" s="11"/>
       <c r="C553" s="11"/>
@@ -22278,7 +22279,7 @@
       <c r="Y553" s="11"/>
       <c r="Z553" s="11"/>
     </row>
-    <row r="554" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="11"/>
       <c r="B554" s="11"/>
       <c r="C554" s="11"/>
@@ -22306,7 +22307,7 @@
       <c r="Y554" s="11"/>
       <c r="Z554" s="11"/>
     </row>
-    <row r="555" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="11"/>
       <c r="B555" s="11"/>
       <c r="C555" s="11"/>
@@ -22334,7 +22335,7 @@
       <c r="Y555" s="11"/>
       <c r="Z555" s="11"/>
     </row>
-    <row r="556" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="11"/>
       <c r="B556" s="11"/>
       <c r="C556" s="11"/>
@@ -22362,7 +22363,7 @@
       <c r="Y556" s="11"/>
       <c r="Z556" s="11"/>
     </row>
-    <row r="557" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="11"/>
       <c r="B557" s="11"/>
       <c r="C557" s="11"/>
@@ -22390,7 +22391,7 @@
       <c r="Y557" s="11"/>
       <c r="Z557" s="11"/>
     </row>
-    <row r="558" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="11"/>
       <c r="B558" s="11"/>
       <c r="C558" s="11"/>
@@ -22418,7 +22419,7 @@
       <c r="Y558" s="11"/>
       <c r="Z558" s="11"/>
     </row>
-    <row r="559" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="11"/>
       <c r="B559" s="11"/>
       <c r="C559" s="11"/>
@@ -22446,7 +22447,7 @@
       <c r="Y559" s="11"/>
       <c r="Z559" s="11"/>
     </row>
-    <row r="560" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="11"/>
       <c r="B560" s="11"/>
       <c r="C560" s="11"/>
@@ -22474,7 +22475,7 @@
       <c r="Y560" s="11"/>
       <c r="Z560" s="11"/>
     </row>
-    <row r="561" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="11"/>
       <c r="B561" s="11"/>
       <c r="C561" s="11"/>
@@ -22502,7 +22503,7 @@
       <c r="Y561" s="11"/>
       <c r="Z561" s="11"/>
     </row>
-    <row r="562" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="11"/>
       <c r="B562" s="11"/>
       <c r="C562" s="11"/>
@@ -22530,7 +22531,7 @@
       <c r="Y562" s="11"/>
       <c r="Z562" s="11"/>
     </row>
-    <row r="563" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="11"/>
       <c r="B563" s="11"/>
       <c r="C563" s="11"/>
@@ -22558,7 +22559,7 @@
       <c r="Y563" s="11"/>
       <c r="Z563" s="11"/>
     </row>
-    <row r="564" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="11"/>
       <c r="B564" s="11"/>
       <c r="C564" s="11"/>
@@ -22586,7 +22587,7 @@
       <c r="Y564" s="11"/>
       <c r="Z564" s="11"/>
     </row>
-    <row r="565" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="11"/>
       <c r="B565" s="11"/>
       <c r="C565" s="11"/>
@@ -22614,7 +22615,7 @@
       <c r="Y565" s="11"/>
       <c r="Z565" s="11"/>
     </row>
-    <row r="566" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="11"/>
       <c r="B566" s="11"/>
       <c r="C566" s="11"/>
@@ -22642,7 +22643,7 @@
       <c r="Y566" s="11"/>
       <c r="Z566" s="11"/>
     </row>
-    <row r="567" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="11"/>
       <c r="B567" s="11"/>
       <c r="C567" s="11"/>
@@ -22670,7 +22671,7 @@
       <c r="Y567" s="11"/>
       <c r="Z567" s="11"/>
     </row>
-    <row r="568" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="11"/>
       <c r="B568" s="11"/>
       <c r="C568" s="11"/>
@@ -22698,7 +22699,7 @@
       <c r="Y568" s="11"/>
       <c r="Z568" s="11"/>
     </row>
-    <row r="569" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="11"/>
       <c r="B569" s="11"/>
       <c r="C569" s="11"/>
@@ -22726,7 +22727,7 @@
       <c r="Y569" s="11"/>
       <c r="Z569" s="11"/>
     </row>
-    <row r="570" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="11"/>
       <c r="B570" s="11"/>
       <c r="C570" s="11"/>
@@ -22754,7 +22755,7 @@
       <c r="Y570" s="11"/>
       <c r="Z570" s="11"/>
     </row>
-    <row r="571" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="11"/>
       <c r="B571" s="11"/>
       <c r="C571" s="11"/>
@@ -22782,7 +22783,7 @@
       <c r="Y571" s="11"/>
       <c r="Z571" s="11"/>
     </row>
-    <row r="572" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="11"/>
       <c r="B572" s="11"/>
       <c r="C572" s="11"/>
@@ -22810,7 +22811,7 @@
       <c r="Y572" s="11"/>
       <c r="Z572" s="11"/>
     </row>
-    <row r="573" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="11"/>
       <c r="B573" s="11"/>
       <c r="C573" s="11"/>
@@ -22838,7 +22839,7 @@
       <c r="Y573" s="11"/>
       <c r="Z573" s="11"/>
     </row>
-    <row r="574" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="11"/>
       <c r="B574" s="11"/>
       <c r="C574" s="11"/>
@@ -22866,7 +22867,7 @@
       <c r="Y574" s="11"/>
       <c r="Z574" s="11"/>
     </row>
-    <row r="575" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="11"/>
       <c r="B575" s="11"/>
       <c r="C575" s="11"/>
@@ -22894,7 +22895,7 @@
       <c r="Y575" s="11"/>
       <c r="Z575" s="11"/>
     </row>
-    <row r="576" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="11"/>
       <c r="B576" s="11"/>
       <c r="C576" s="11"/>
@@ -22922,7 +22923,7 @@
       <c r="Y576" s="11"/>
       <c r="Z576" s="11"/>
     </row>
-    <row r="577" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="11"/>
       <c r="B577" s="11"/>
       <c r="C577" s="11"/>
@@ -22950,7 +22951,7 @@
       <c r="Y577" s="11"/>
       <c r="Z577" s="11"/>
     </row>
-    <row r="578" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="11"/>
       <c r="B578" s="11"/>
       <c r="C578" s="11"/>
@@ -22978,7 +22979,7 @@
       <c r="Y578" s="11"/>
       <c r="Z578" s="11"/>
     </row>
-    <row r="579" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="11"/>
       <c r="B579" s="11"/>
       <c r="C579" s="11"/>
@@ -23006,7 +23007,7 @@
       <c r="Y579" s="11"/>
       <c r="Z579" s="11"/>
     </row>
-    <row r="580" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="11"/>
       <c r="B580" s="11"/>
       <c r="C580" s="11"/>
@@ -23034,7 +23035,7 @@
       <c r="Y580" s="11"/>
       <c r="Z580" s="11"/>
     </row>
-    <row r="581" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="11"/>
       <c r="B581" s="11"/>
       <c r="C581" s="11"/>
@@ -23062,7 +23063,7 @@
       <c r="Y581" s="11"/>
       <c r="Z581" s="11"/>
     </row>
-    <row r="582" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="11"/>
       <c r="B582" s="11"/>
       <c r="C582" s="11"/>
@@ -23090,7 +23091,7 @@
       <c r="Y582" s="11"/>
       <c r="Z582" s="11"/>
     </row>
-    <row r="583" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="11"/>
       <c r="B583" s="11"/>
       <c r="C583" s="11"/>
@@ -23118,7 +23119,7 @@
       <c r="Y583" s="11"/>
       <c r="Z583" s="11"/>
     </row>
-    <row r="584" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="11"/>
       <c r="B584" s="11"/>
       <c r="C584" s="11"/>
@@ -23146,7 +23147,7 @@
       <c r="Y584" s="11"/>
       <c r="Z584" s="11"/>
     </row>
-    <row r="585" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="11"/>
       <c r="B585" s="11"/>
       <c r="C585" s="11"/>
@@ -23174,7 +23175,7 @@
       <c r="Y585" s="11"/>
       <c r="Z585" s="11"/>
     </row>
-    <row r="586" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="11"/>
       <c r="B586" s="11"/>
       <c r="C586" s="11"/>
@@ -23202,7 +23203,7 @@
       <c r="Y586" s="11"/>
       <c r="Z586" s="11"/>
     </row>
-    <row r="587" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="11"/>
       <c r="B587" s="11"/>
       <c r="C587" s="11"/>
@@ -23230,7 +23231,7 @@
       <c r="Y587" s="11"/>
       <c r="Z587" s="11"/>
     </row>
-    <row r="588" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="11"/>
       <c r="B588" s="11"/>
       <c r="C588" s="11"/>
@@ -23258,7 +23259,7 @@
       <c r="Y588" s="11"/>
       <c r="Z588" s="11"/>
     </row>
-    <row r="589" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="11"/>
       <c r="B589" s="11"/>
       <c r="C589" s="11"/>
@@ -23286,7 +23287,7 @@
       <c r="Y589" s="11"/>
       <c r="Z589" s="11"/>
     </row>
-    <row r="590" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="11"/>
       <c r="B590" s="11"/>
       <c r="C590" s="11"/>
@@ -23314,7 +23315,7 @@
       <c r="Y590" s="11"/>
       <c r="Z590" s="11"/>
     </row>
-    <row r="591" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="11"/>
       <c r="B591" s="11"/>
       <c r="C591" s="11"/>
@@ -23342,7 +23343,7 @@
       <c r="Y591" s="11"/>
       <c r="Z591" s="11"/>
     </row>
-    <row r="592" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="11"/>
       <c r="B592" s="11"/>
       <c r="C592" s="11"/>
@@ -23370,7 +23371,7 @@
       <c r="Y592" s="11"/>
       <c r="Z592" s="11"/>
     </row>
-    <row r="593" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="11"/>
       <c r="B593" s="11"/>
       <c r="C593" s="11"/>
@@ -23398,7 +23399,7 @@
       <c r="Y593" s="11"/>
       <c r="Z593" s="11"/>
     </row>
-    <row r="594" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="11"/>
       <c r="B594" s="11"/>
       <c r="C594" s="11"/>
@@ -23426,7 +23427,7 @@
       <c r="Y594" s="11"/>
       <c r="Z594" s="11"/>
     </row>
-    <row r="595" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="11"/>
       <c r="B595" s="11"/>
       <c r="C595" s="11"/>
@@ -23454,7 +23455,7 @@
       <c r="Y595" s="11"/>
       <c r="Z595" s="11"/>
     </row>
-    <row r="596" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="11"/>
       <c r="B596" s="11"/>
       <c r="C596" s="11"/>
@@ -23482,7 +23483,7 @@
       <c r="Y596" s="11"/>
       <c r="Z596" s="11"/>
     </row>
-    <row r="597" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="11"/>
       <c r="B597" s="11"/>
       <c r="C597" s="11"/>
@@ -23510,7 +23511,7 @@
       <c r="Y597" s="11"/>
       <c r="Z597" s="11"/>
     </row>
-    <row r="598" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="11"/>
       <c r="B598" s="11"/>
       <c r="C598" s="11"/>
@@ -23538,7 +23539,7 @@
       <c r="Y598" s="11"/>
       <c r="Z598" s="11"/>
     </row>
-    <row r="599" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="11"/>
       <c r="B599" s="11"/>
       <c r="C599" s="11"/>
@@ -23566,7 +23567,7 @@
       <c r="Y599" s="11"/>
       <c r="Z599" s="11"/>
     </row>
-    <row r="600" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="11"/>
       <c r="B600" s="11"/>
       <c r="C600" s="11"/>
@@ -23594,7 +23595,7 @@
       <c r="Y600" s="11"/>
       <c r="Z600" s="11"/>
     </row>
-    <row r="601" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="11"/>
       <c r="B601" s="11"/>
       <c r="C601" s="11"/>
@@ -23622,7 +23623,7 @@
       <c r="Y601" s="11"/>
       <c r="Z601" s="11"/>
     </row>
-    <row r="602" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="11"/>
       <c r="B602" s="11"/>
       <c r="C602" s="11"/>
@@ -23650,7 +23651,7 @@
       <c r="Y602" s="11"/>
       <c r="Z602" s="11"/>
     </row>
-    <row r="603" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="11"/>
       <c r="B603" s="11"/>
       <c r="C603" s="11"/>
@@ -23678,7 +23679,7 @@
       <c r="Y603" s="11"/>
       <c r="Z603" s="11"/>
     </row>
-    <row r="604" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="11"/>
       <c r="B604" s="11"/>
       <c r="C604" s="11"/>
@@ -23706,7 +23707,7 @@
       <c r="Y604" s="11"/>
       <c r="Z604" s="11"/>
     </row>
-    <row r="605" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="11"/>
       <c r="B605" s="11"/>
       <c r="C605" s="11"/>
@@ -23734,7 +23735,7 @@
       <c r="Y605" s="11"/>
       <c r="Z605" s="11"/>
     </row>
-    <row r="606" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="11"/>
       <c r="B606" s="11"/>
       <c r="C606" s="11"/>
@@ -23762,7 +23763,7 @@
       <c r="Y606" s="11"/>
       <c r="Z606" s="11"/>
     </row>
-    <row r="607" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="11"/>
       <c r="B607" s="11"/>
       <c r="C607" s="11"/>
@@ -23790,7 +23791,7 @@
       <c r="Y607" s="11"/>
       <c r="Z607" s="11"/>
     </row>
-    <row r="608" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="11"/>
       <c r="B608" s="11"/>
       <c r="C608" s="11"/>
@@ -23818,7 +23819,7 @@
       <c r="Y608" s="11"/>
       <c r="Z608" s="11"/>
     </row>
-    <row r="609" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="11"/>
       <c r="B609" s="11"/>
       <c r="C609" s="11"/>
@@ -23846,7 +23847,7 @@
       <c r="Y609" s="11"/>
       <c r="Z609" s="11"/>
     </row>
-    <row r="610" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="11"/>
       <c r="B610" s="11"/>
       <c r="C610" s="11"/>
@@ -23874,7 +23875,7 @@
       <c r="Y610" s="11"/>
       <c r="Z610" s="11"/>
     </row>
-    <row r="611" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="11"/>
       <c r="B611" s="11"/>
       <c r="C611" s="11"/>
@@ -23902,7 +23903,7 @@
       <c r="Y611" s="11"/>
       <c r="Z611" s="11"/>
     </row>
-    <row r="612" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="11"/>
       <c r="B612" s="11"/>
       <c r="C612" s="11"/>
@@ -23930,7 +23931,7 @@
       <c r="Y612" s="11"/>
       <c r="Z612" s="11"/>
     </row>
-    <row r="613" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="11"/>
       <c r="B613" s="11"/>
       <c r="C613" s="11"/>
@@ -23958,7 +23959,7 @@
       <c r="Y613" s="11"/>
       <c r="Z613" s="11"/>
     </row>
-    <row r="614" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="11"/>
       <c r="B614" s="11"/>
       <c r="C614" s="11"/>
@@ -23986,7 +23987,7 @@
       <c r="Y614" s="11"/>
       <c r="Z614" s="11"/>
     </row>
-    <row r="615" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="11"/>
       <c r="B615" s="11"/>
       <c r="C615" s="11"/>
@@ -24014,7 +24015,7 @@
       <c r="Y615" s="11"/>
       <c r="Z615" s="11"/>
     </row>
-    <row r="616" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="11"/>
       <c r="B616" s="11"/>
       <c r="C616" s="11"/>
@@ -24042,7 +24043,7 @@
       <c r="Y616" s="11"/>
       <c r="Z616" s="11"/>
     </row>
-    <row r="617" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="11"/>
       <c r="B617" s="11"/>
       <c r="C617" s="11"/>
@@ -24070,7 +24071,7 @@
       <c r="Y617" s="11"/>
       <c r="Z617" s="11"/>
     </row>
-    <row r="618" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="11"/>
       <c r="B618" s="11"/>
       <c r="C618" s="11"/>
@@ -24098,7 +24099,7 @@
       <c r="Y618" s="11"/>
       <c r="Z618" s="11"/>
     </row>
-    <row r="619" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="11"/>
       <c r="B619" s="11"/>
       <c r="C619" s="11"/>
@@ -24126,7 +24127,7 @@
       <c r="Y619" s="11"/>
       <c r="Z619" s="11"/>
     </row>
-    <row r="620" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="11"/>
       <c r="B620" s="11"/>
       <c r="C620" s="11"/>
@@ -24154,7 +24155,7 @@
       <c r="Y620" s="11"/>
       <c r="Z620" s="11"/>
     </row>
-    <row r="621" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="11"/>
       <c r="B621" s="11"/>
       <c r="C621" s="11"/>
@@ -24182,7 +24183,7 @@
       <c r="Y621" s="11"/>
       <c r="Z621" s="11"/>
     </row>
-    <row r="622" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="11"/>
       <c r="B622" s="11"/>
       <c r="C622" s="11"/>
@@ -24210,7 +24211,7 @@
       <c r="Y622" s="11"/>
       <c r="Z622" s="11"/>
     </row>
-    <row r="623" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="11"/>
       <c r="B623" s="11"/>
       <c r="C623" s="11"/>
@@ -24238,7 +24239,7 @@
       <c r="Y623" s="11"/>
       <c r="Z623" s="11"/>
     </row>
-    <row r="624" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="11"/>
       <c r="B624" s="11"/>
       <c r="C624" s="11"/>
@@ -24266,7 +24267,7 @@
       <c r="Y624" s="11"/>
       <c r="Z624" s="11"/>
     </row>
-    <row r="625" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="11"/>
       <c r="B625" s="11"/>
       <c r="C625" s="11"/>
@@ -24294,7 +24295,7 @@
       <c r="Y625" s="11"/>
       <c r="Z625" s="11"/>
     </row>
-    <row r="626" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="11"/>
       <c r="B626" s="11"/>
       <c r="C626" s="11"/>
@@ -24322,7 +24323,7 @@
       <c r="Y626" s="11"/>
       <c r="Z626" s="11"/>
     </row>
-    <row r="627" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="11"/>
       <c r="B627" s="11"/>
       <c r="C627" s="11"/>
@@ -24350,7 +24351,7 @@
       <c r="Y627" s="11"/>
       <c r="Z627" s="11"/>
     </row>
-    <row r="628" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="11"/>
       <c r="B628" s="11"/>
       <c r="C628" s="11"/>
@@ -24378,7 +24379,7 @@
       <c r="Y628" s="11"/>
       <c r="Z628" s="11"/>
     </row>
-    <row r="629" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="11"/>
       <c r="B629" s="11"/>
       <c r="C629" s="11"/>
@@ -24406,7 +24407,7 @@
       <c r="Y629" s="11"/>
       <c r="Z629" s="11"/>
     </row>
-    <row r="630" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="11"/>
       <c r="B630" s="11"/>
       <c r="C630" s="11"/>
@@ -24434,7 +24435,7 @@
       <c r="Y630" s="11"/>
       <c r="Z630" s="11"/>
     </row>
-    <row r="631" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="11"/>
       <c r="B631" s="11"/>
       <c r="C631" s="11"/>
@@ -24462,7 +24463,7 @@
       <c r="Y631" s="11"/>
       <c r="Z631" s="11"/>
     </row>
-    <row r="632" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="11"/>
       <c r="B632" s="11"/>
       <c r="C632" s="11"/>
@@ -24490,7 +24491,7 @@
       <c r="Y632" s="11"/>
       <c r="Z632" s="11"/>
     </row>
-    <row r="633" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="11"/>
       <c r="B633" s="11"/>
       <c r="C633" s="11"/>
@@ -24518,7 +24519,7 @@
       <c r="Y633" s="11"/>
       <c r="Z633" s="11"/>
     </row>
-    <row r="634" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="11"/>
       <c r="B634" s="11"/>
       <c r="C634" s="11"/>
@@ -24546,7 +24547,7 @@
       <c r="Y634" s="11"/>
       <c r="Z634" s="11"/>
     </row>
-    <row r="635" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="11"/>
       <c r="B635" s="11"/>
       <c r="C635" s="11"/>
@@ -24574,7 +24575,7 @@
       <c r="Y635" s="11"/>
       <c r="Z635" s="11"/>
     </row>
-    <row r="636" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="11"/>
       <c r="B636" s="11"/>
       <c r="C636" s="11"/>
@@ -24602,7 +24603,7 @@
       <c r="Y636" s="11"/>
       <c r="Z636" s="11"/>
     </row>
-    <row r="637" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="11"/>
       <c r="B637" s="11"/>
       <c r="C637" s="11"/>
@@ -24630,7 +24631,7 @@
       <c r="Y637" s="11"/>
       <c r="Z637" s="11"/>
     </row>
-    <row r="638" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="11"/>
       <c r="B638" s="11"/>
       <c r="C638" s="11"/>
@@ -24658,7 +24659,7 @@
       <c r="Y638" s="11"/>
       <c r="Z638" s="11"/>
     </row>
-    <row r="639" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="11"/>
       <c r="B639" s="11"/>
       <c r="C639" s="11"/>
@@ -24686,7 +24687,7 @@
       <c r="Y639" s="11"/>
       <c r="Z639" s="11"/>
     </row>
-    <row r="640" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="11"/>
       <c r="B640" s="11"/>
       <c r="C640" s="11"/>
@@ -24714,7 +24715,7 @@
       <c r="Y640" s="11"/>
       <c r="Z640" s="11"/>
     </row>
-    <row r="641" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="11"/>
       <c r="B641" s="11"/>
       <c r="C641" s="11"/>
@@ -24742,7 +24743,7 @@
       <c r="Y641" s="11"/>
       <c r="Z641" s="11"/>
     </row>
-    <row r="642" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="11"/>
       <c r="B642" s="11"/>
       <c r="C642" s="11"/>
@@ -24770,7 +24771,7 @@
       <c r="Y642" s="11"/>
       <c r="Z642" s="11"/>
     </row>
-    <row r="643" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="11"/>
       <c r="B643" s="11"/>
       <c r="C643" s="11"/>
@@ -24798,7 +24799,7 @@
       <c r="Y643" s="11"/>
       <c r="Z643" s="11"/>
     </row>
-    <row r="644" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="11"/>
       <c r="B644" s="11"/>
       <c r="C644" s="11"/>
@@ -24826,7 +24827,7 @@
       <c r="Y644" s="11"/>
       <c r="Z644" s="11"/>
     </row>
-    <row r="645" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="11"/>
       <c r="B645" s="11"/>
       <c r="C645" s="11"/>
@@ -24854,7 +24855,7 @@
       <c r="Y645" s="11"/>
       <c r="Z645" s="11"/>
     </row>
-    <row r="646" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="11"/>
       <c r="B646" s="11"/>
       <c r="C646" s="11"/>
@@ -24882,7 +24883,7 @@
       <c r="Y646" s="11"/>
       <c r="Z646" s="11"/>
     </row>
-    <row r="647" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="11"/>
       <c r="B647" s="11"/>
       <c r="C647" s="11"/>
@@ -24910,7 +24911,7 @@
       <c r="Y647" s="11"/>
       <c r="Z647" s="11"/>
     </row>
-    <row r="648" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="11"/>
       <c r="B648" s="11"/>
       <c r="C648" s="11"/>
@@ -24938,7 +24939,7 @@
       <c r="Y648" s="11"/>
       <c r="Z648" s="11"/>
     </row>
-    <row r="649" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="11"/>
       <c r="B649" s="11"/>
       <c r="C649" s="11"/>
@@ -24966,7 +24967,7 @@
       <c r="Y649" s="11"/>
       <c r="Z649" s="11"/>
     </row>
-    <row r="650" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="11"/>
       <c r="B650" s="11"/>
       <c r="C650" s="11"/>
@@ -24994,7 +24995,7 @@
       <c r="Y650" s="11"/>
       <c r="Z650" s="11"/>
     </row>
-    <row r="651" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="11"/>
       <c r="B651" s="11"/>
       <c r="C651" s="11"/>
@@ -25022,7 +25023,7 @@
       <c r="Y651" s="11"/>
       <c r="Z651" s="11"/>
     </row>
-    <row r="652" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="11"/>
       <c r="B652" s="11"/>
       <c r="C652" s="11"/>
@@ -25050,7 +25051,7 @@
       <c r="Y652" s="11"/>
       <c r="Z652" s="11"/>
     </row>
-    <row r="653" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="11"/>
       <c r="B653" s="11"/>
       <c r="C653" s="11"/>
@@ -25078,7 +25079,7 @@
       <c r="Y653" s="11"/>
       <c r="Z653" s="11"/>
     </row>
-    <row r="654" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="11"/>
       <c r="B654" s="11"/>
       <c r="C654" s="11"/>
@@ -25106,7 +25107,7 @@
       <c r="Y654" s="11"/>
       <c r="Z654" s="11"/>
     </row>
-    <row r="655" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="11"/>
       <c r="B655" s="11"/>
       <c r="C655" s="11"/>
@@ -25134,7 +25135,7 @@
       <c r="Y655" s="11"/>
       <c r="Z655" s="11"/>
     </row>
-    <row r="656" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="11"/>
       <c r="B656" s="11"/>
       <c r="C656" s="11"/>
@@ -25162,7 +25163,7 @@
       <c r="Y656" s="11"/>
       <c r="Z656" s="11"/>
     </row>
-    <row r="657" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="11"/>
       <c r="B657" s="11"/>
       <c r="C657" s="11"/>
@@ -25190,7 +25191,7 @@
       <c r="Y657" s="11"/>
       <c r="Z657" s="11"/>
     </row>
-    <row r="658" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="11"/>
       <c r="B658" s="11"/>
       <c r="C658" s="11"/>
@@ -25218,7 +25219,7 @@
       <c r="Y658" s="11"/>
       <c r="Z658" s="11"/>
     </row>
-    <row r="659" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="11"/>
       <c r="B659" s="11"/>
       <c r="C659" s="11"/>
@@ -25246,7 +25247,7 @@
       <c r="Y659" s="11"/>
       <c r="Z659" s="11"/>
     </row>
-    <row r="660" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="11"/>
       <c r="B660" s="11"/>
       <c r="C660" s="11"/>
@@ -25274,7 +25275,7 @@
       <c r="Y660" s="11"/>
       <c r="Z660" s="11"/>
     </row>
-    <row r="661" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="11"/>
       <c r="B661" s="11"/>
       <c r="C661" s="11"/>
@@ -25302,7 +25303,7 @@
       <c r="Y661" s="11"/>
       <c r="Z661" s="11"/>
     </row>
-    <row r="662" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="11"/>
       <c r="B662" s="11"/>
       <c r="C662" s="11"/>
@@ -25330,7 +25331,7 @@
       <c r="Y662" s="11"/>
       <c r="Z662" s="11"/>
     </row>
-    <row r="663" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="11"/>
       <c r="B663" s="11"/>
       <c r="C663" s="11"/>
@@ -25358,7 +25359,7 @@
       <c r="Y663" s="11"/>
       <c r="Z663" s="11"/>
     </row>
-    <row r="664" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="11"/>
       <c r="B664" s="11"/>
       <c r="C664" s="11"/>
@@ -25386,7 +25387,7 @@
       <c r="Y664" s="11"/>
       <c r="Z664" s="11"/>
     </row>
-    <row r="665" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="11"/>
       <c r="B665" s="11"/>
       <c r="C665" s="11"/>
@@ -25414,7 +25415,7 @@
       <c r="Y665" s="11"/>
       <c r="Z665" s="11"/>
     </row>
-    <row r="666" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="11"/>
       <c r="B666" s="11"/>
       <c r="C666" s="11"/>
@@ -25442,7 +25443,7 @@
       <c r="Y666" s="11"/>
       <c r="Z666" s="11"/>
     </row>
-    <row r="667" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="11"/>
       <c r="B667" s="11"/>
       <c r="C667" s="11"/>
@@ -25470,7 +25471,7 @@
       <c r="Y667" s="11"/>
       <c r="Z667" s="11"/>
     </row>
-    <row r="668" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="11"/>
       <c r="B668" s="11"/>
       <c r="C668" s="11"/>
@@ -25498,7 +25499,7 @@
       <c r="Y668" s="11"/>
       <c r="Z668" s="11"/>
     </row>
-    <row r="669" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="11"/>
       <c r="B669" s="11"/>
       <c r="C669" s="11"/>
@@ -25526,7 +25527,7 @@
       <c r="Y669" s="11"/>
       <c r="Z669" s="11"/>
     </row>
-    <row r="670" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="11"/>
       <c r="B670" s="11"/>
       <c r="C670" s="11"/>
@@ -25554,7 +25555,7 @@
       <c r="Y670" s="11"/>
       <c r="Z670" s="11"/>
     </row>
-    <row r="671" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="11"/>
       <c r="B671" s="11"/>
       <c r="C671" s="11"/>
@@ -25582,7 +25583,7 @@
       <c r="Y671" s="11"/>
       <c r="Z671" s="11"/>
     </row>
-    <row r="672" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="11"/>
       <c r="B672" s="11"/>
       <c r="C672" s="11"/>
@@ -25610,7 +25611,7 @@
       <c r="Y672" s="11"/>
       <c r="Z672" s="11"/>
     </row>
-    <row r="673" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="11"/>
       <c r="B673" s="11"/>
       <c r="C673" s="11"/>
@@ -25638,7 +25639,7 @@
       <c r="Y673" s="11"/>
       <c r="Z673" s="11"/>
     </row>
-    <row r="674" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="11"/>
       <c r="B674" s="11"/>
       <c r="C674" s="11"/>
@@ -25666,7 +25667,7 @@
       <c r="Y674" s="11"/>
       <c r="Z674" s="11"/>
     </row>
-    <row r="675" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="11"/>
       <c r="B675" s="11"/>
       <c r="C675" s="11"/>
@@ -25694,7 +25695,7 @@
       <c r="Y675" s="11"/>
       <c r="Z675" s="11"/>
     </row>
-    <row r="676" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="11"/>
       <c r="B676" s="11"/>
       <c r="C676" s="11"/>
@@ -25722,7 +25723,7 @@
       <c r="Y676" s="11"/>
       <c r="Z676" s="11"/>
     </row>
-    <row r="677" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="11"/>
       <c r="B677" s="11"/>
       <c r="C677" s="11"/>
@@ -25750,7 +25751,7 @@
       <c r="Y677" s="11"/>
       <c r="Z677" s="11"/>
     </row>
-    <row r="678" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="11"/>
       <c r="B678" s="11"/>
       <c r="C678" s="11"/>
@@ -25778,7 +25779,7 @@
       <c r="Y678" s="11"/>
       <c r="Z678" s="11"/>
     </row>
-    <row r="679" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="11"/>
       <c r="B679" s="11"/>
       <c r="C679" s="11"/>
@@ -25806,7 +25807,7 @@
       <c r="Y679" s="11"/>
       <c r="Z679" s="11"/>
     </row>
-    <row r="680" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="11"/>
       <c r="B680" s="11"/>
       <c r="C680" s="11"/>
@@ -25834,7 +25835,7 @@
       <c r="Y680" s="11"/>
       <c r="Z680" s="11"/>
     </row>
-    <row r="681" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="11"/>
       <c r="B681" s="11"/>
       <c r="C681" s="11"/>
@@ -25862,7 +25863,7 @@
       <c r="Y681" s="11"/>
       <c r="Z681" s="11"/>
     </row>
-    <row r="682" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="11"/>
       <c r="B682" s="11"/>
       <c r="C682" s="11"/>
@@ -25890,7 +25891,7 @@
       <c r="Y682" s="11"/>
       <c r="Z682" s="11"/>
     </row>
-    <row r="683" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="11"/>
       <c r="B683" s="11"/>
       <c r="C683" s="11"/>
@@ -25918,7 +25919,7 @@
       <c r="Y683" s="11"/>
       <c r="Z683" s="11"/>
     </row>
-    <row r="684" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="11"/>
       <c r="B684" s="11"/>
       <c r="C684" s="11"/>
@@ -25946,7 +25947,7 @@
       <c r="Y684" s="11"/>
       <c r="Z684" s="11"/>
     </row>
-    <row r="685" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="11"/>
       <c r="B685" s="11"/>
       <c r="C685" s="11"/>
@@ -25974,7 +25975,7 @@
       <c r="Y685" s="11"/>
       <c r="Z685" s="11"/>
     </row>
-    <row r="686" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="11"/>
       <c r="B686" s="11"/>
       <c r="C686" s="11"/>
@@ -26002,7 +26003,7 @@
       <c r="Y686" s="11"/>
       <c r="Z686" s="11"/>
     </row>
-    <row r="687" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="11"/>
       <c r="B687" s="11"/>
       <c r="C687" s="11"/>
@@ -26030,7 +26031,7 @@
       <c r="Y687" s="11"/>
       <c r="Z687" s="11"/>
     </row>
-    <row r="688" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="11"/>
       <c r="B688" s="11"/>
       <c r="C688" s="11"/>
@@ -26058,7 +26059,7 @@
       <c r="Y688" s="11"/>
       <c r="Z688" s="11"/>
     </row>
-    <row r="689" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="11"/>
       <c r="B689" s="11"/>
       <c r="C689" s="11"/>
@@ -26086,7 +26087,7 @@
       <c r="Y689" s="11"/>
       <c r="Z689" s="11"/>
     </row>
-    <row r="690" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="11"/>
       <c r="B690" s="11"/>
       <c r="C690" s="11"/>
@@ -26114,7 +26115,7 @@
       <c r="Y690" s="11"/>
       <c r="Z690" s="11"/>
     </row>
-    <row r="691" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="11"/>
       <c r="B691" s="11"/>
       <c r="C691" s="11"/>
@@ -26142,7 +26143,7 @@
       <c r="Y691" s="11"/>
       <c r="Z691" s="11"/>
     </row>
-    <row r="692" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="11"/>
       <c r="B692" s="11"/>
       <c r="C692" s="11"/>
@@ -26170,7 +26171,7 @@
       <c r="Y692" s="11"/>
       <c r="Z692" s="11"/>
     </row>
-    <row r="693" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="11"/>
       <c r="B693" s="11"/>
       <c r="C693" s="11"/>
@@ -26198,7 +26199,7 @@
       <c r="Y693" s="11"/>
       <c r="Z693" s="11"/>
     </row>
-    <row r="694" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="11"/>
       <c r="B694" s="11"/>
       <c r="C694" s="11"/>
@@ -26226,7 +26227,7 @@
       <c r="Y694" s="11"/>
       <c r="Z694" s="11"/>
     </row>
-    <row r="695" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="11"/>
       <c r="B695" s="11"/>
       <c r="C695" s="11"/>
@@ -26254,7 +26255,7 @@
       <c r="Y695" s="11"/>
       <c r="Z695" s="11"/>
     </row>
-    <row r="696" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="11"/>
       <c r="B696" s="11"/>
       <c r="C696" s="11"/>
@@ -26282,7 +26283,7 @@
       <c r="Y696" s="11"/>
       <c r="Z696" s="11"/>
     </row>
-    <row r="697" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="11"/>
       <c r="B697" s="11"/>
       <c r="C697" s="11"/>
@@ -26310,7 +26311,7 @@
       <c r="Y697" s="11"/>
       <c r="Z697" s="11"/>
     </row>
-    <row r="698" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="11"/>
       <c r="B698" s="11"/>
       <c r="C698" s="11"/>
@@ -26338,7 +26339,7 @@
       <c r="Y698" s="11"/>
       <c r="Z698" s="11"/>
     </row>
-    <row r="699" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="11"/>
       <c r="B699" s="11"/>
       <c r="C699" s="11"/>
@@ -26366,7 +26367,7 @@
       <c r="Y699" s="11"/>
       <c r="Z699" s="11"/>
     </row>
-    <row r="700" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="11"/>
       <c r="B700" s="11"/>
       <c r="C700" s="11"/>
@@ -26394,7 +26395,7 @@
       <c r="Y700" s="11"/>
       <c r="Z700" s="11"/>
     </row>
-    <row r="701" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="11"/>
       <c r="B701" s="11"/>
       <c r="C701" s="11"/>
@@ -26422,7 +26423,7 @@
       <c r="Y701" s="11"/>
       <c r="Z701" s="11"/>
     </row>
-    <row r="702" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="11"/>
       <c r="B702" s="11"/>
       <c r="C702" s="11"/>
@@ -26450,7 +26451,7 @@
       <c r="Y702" s="11"/>
       <c r="Z702" s="11"/>
     </row>
-    <row r="703" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="11"/>
       <c r="B703" s="11"/>
       <c r="C703" s="11"/>
@@ -26478,7 +26479,7 @@
       <c r="Y703" s="11"/>
       <c r="Z703" s="11"/>
     </row>
-    <row r="704" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="11"/>
       <c r="B704" s="11"/>
       <c r="C704" s="11"/>
@@ -26506,7 +26507,7 @@
       <c r="Y704" s="11"/>
       <c r="Z704" s="11"/>
     </row>
-    <row r="705" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="11"/>
       <c r="B705" s="11"/>
       <c r="C705" s="11"/>
@@ -26534,7 +26535,7 @@
       <c r="Y705" s="11"/>
       <c r="Z705" s="11"/>
     </row>
-    <row r="706" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="11"/>
       <c r="B706" s="11"/>
       <c r="C706" s="11"/>
@@ -26562,7 +26563,7 @@
       <c r="Y706" s="11"/>
       <c r="Z706" s="11"/>
     </row>
-    <row r="707" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="11"/>
       <c r="B707" s="11"/>
       <c r="C707" s="11"/>
@@ -26590,7 +26591,7 @@
       <c r="Y707" s="11"/>
       <c r="Z707" s="11"/>
     </row>
-    <row r="708" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="11"/>
       <c r="B708" s="11"/>
       <c r="C708" s="11"/>
@@ -26618,7 +26619,7 @@
       <c r="Y708" s="11"/>
       <c r="Z708" s="11"/>
     </row>
-    <row r="709" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="11"/>
       <c r="B709" s="11"/>
       <c r="C709" s="11"/>
@@ -26646,7 +26647,7 @@
       <c r="Y709" s="11"/>
       <c r="Z709" s="11"/>
     </row>
-    <row r="710" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="11"/>
       <c r="B710" s="11"/>
       <c r="C710" s="11"/>
@@ -26674,7 +26675,7 @@
       <c r="Y710" s="11"/>
       <c r="Z710" s="11"/>
     </row>
-    <row r="711" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="11"/>
       <c r="B711" s="11"/>
       <c r="C711" s="11"/>
@@ -26702,7 +26703,7 @@
       <c r="Y711" s="11"/>
       <c r="Z711" s="11"/>
     </row>
-    <row r="712" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="11"/>
       <c r="B712" s="11"/>
       <c r="C712" s="11"/>
@@ -26730,7 +26731,7 @@
       <c r="Y712" s="11"/>
       <c r="Z712" s="11"/>
     </row>
-    <row r="713" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="11"/>
       <c r="B713" s="11"/>
       <c r="C713" s="11"/>
@@ -26758,7 +26759,7 @@
       <c r="Y713" s="11"/>
       <c r="Z713" s="11"/>
     </row>
-    <row r="714" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="11"/>
       <c r="B714" s="11"/>
       <c r="C714" s="11"/>
@@ -26786,7 +26787,7 @@
       <c r="Y714" s="11"/>
       <c r="Z714" s="11"/>
     </row>
-    <row r="715" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="11"/>
       <c r="B715" s="11"/>
       <c r="C715" s="11"/>
@@ -26814,7 +26815,7 @@
       <c r="Y715" s="11"/>
       <c r="Z715" s="11"/>
     </row>
-    <row r="716" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="11"/>
       <c r="B716" s="11"/>
       <c r="C716" s="11"/>
@@ -26842,7 +26843,7 @@
       <c r="Y716" s="11"/>
       <c r="Z716" s="11"/>
     </row>
-    <row r="717" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="11"/>
       <c r="B717" s="11"/>
       <c r="C717" s="11"/>
@@ -26870,7 +26871,7 @@
       <c r="Y717" s="11"/>
       <c r="Z717" s="11"/>
     </row>
-    <row r="718" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="11"/>
       <c r="B718" s="11"/>
       <c r="C718" s="11"/>
@@ -26898,7 +26899,7 @@
       <c r="Y718" s="11"/>
       <c r="Z718" s="11"/>
     </row>
-    <row r="719" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="11"/>
       <c r="B719" s="11"/>
       <c r="C719" s="11"/>
@@ -26926,7 +26927,7 @@
       <c r="Y719" s="11"/>
       <c r="Z719" s="11"/>
     </row>
-    <row r="720" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="11"/>
       <c r="B720" s="11"/>
       <c r="C720" s="11"/>
@@ -26954,7 +26955,7 @@
       <c r="Y720" s="11"/>
       <c r="Z720" s="11"/>
     </row>
-    <row r="721" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="11"/>
       <c r="B721" s="11"/>
       <c r="C721" s="11"/>
@@ -26982,7 +26983,7 @@
       <c r="Y721" s="11"/>
       <c r="Z721" s="11"/>
     </row>
-    <row r="722" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="11"/>
       <c r="B722" s="11"/>
       <c r="C722" s="11"/>
@@ -27010,7 +27011,7 @@
       <c r="Y722" s="11"/>
       <c r="Z722" s="11"/>
     </row>
-    <row r="723" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="11"/>
       <c r="B723" s="11"/>
       <c r="C723" s="11"/>
@@ -27038,7 +27039,7 @@
       <c r="Y723" s="11"/>
       <c r="Z723" s="11"/>
     </row>
-    <row r="724" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="11"/>
       <c r="B724" s="11"/>
       <c r="C724" s="11"/>
@@ -27066,7 +27067,7 @@
       <c r="Y724" s="11"/>
       <c r="Z724" s="11"/>
     </row>
-    <row r="725" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="11"/>
       <c r="B725" s="11"/>
       <c r="C725" s="11"/>
@@ -27094,7 +27095,7 @@
       <c r="Y725" s="11"/>
       <c r="Z725" s="11"/>
     </row>
-    <row r="726" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="11"/>
       <c r="B726" s="11"/>
       <c r="C726" s="11"/>
@@ -27122,7 +27123,7 @@
       <c r="Y726" s="11"/>
       <c r="Z726" s="11"/>
     </row>
-    <row r="727" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="11"/>
       <c r="B727" s="11"/>
       <c r="C727" s="11"/>
@@ -27150,7 +27151,7 @@
       <c r="Y727" s="11"/>
       <c r="Z727" s="11"/>
     </row>
-    <row r="728" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="11"/>
       <c r="B728" s="11"/>
       <c r="C728" s="11"/>
@@ -27178,7 +27179,7 @@
       <c r="Y728" s="11"/>
       <c r="Z728" s="11"/>
     </row>
-    <row r="729" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="11"/>
       <c r="B729" s="11"/>
       <c r="C729" s="11"/>
@@ -27206,7 +27207,7 @@
       <c r="Y729" s="11"/>
       <c r="Z729" s="11"/>
     </row>
-    <row r="730" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="11"/>
       <c r="B730" s="11"/>
       <c r="C730" s="11"/>
@@ -27234,7 +27235,7 @@
       <c r="Y730" s="11"/>
       <c r="Z730" s="11"/>
     </row>
-    <row r="731" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="11"/>
       <c r="B731" s="11"/>
       <c r="C731" s="11"/>
@@ -27262,7 +27263,7 @@
       <c r="Y731" s="11"/>
       <c r="Z731" s="11"/>
     </row>
-    <row r="732" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="11"/>
       <c r="B732" s="11"/>
       <c r="C732" s="11"/>
@@ -27290,7 +27291,7 @@
       <c r="Y732" s="11"/>
       <c r="Z732" s="11"/>
     </row>
-    <row r="733" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="11"/>
       <c r="B733" s="11"/>
       <c r="C733" s="11"/>
@@ -27318,7 +27319,7 @@
       <c r="Y733" s="11"/>
       <c r="Z733" s="11"/>
     </row>
-    <row r="734" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="11"/>
       <c r="B734" s="11"/>
       <c r="C734" s="11"/>
@@ -27346,7 +27347,7 @@
       <c r="Y734" s="11"/>
       <c r="Z734" s="11"/>
     </row>
-    <row r="735" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="11"/>
       <c r="B735" s="11"/>
       <c r="C735" s="11"/>
@@ -27374,7 +27375,7 @@
       <c r="Y735" s="11"/>
       <c r="Z735" s="11"/>
     </row>
-    <row r="736" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="11"/>
       <c r="B736" s="11"/>
       <c r="C736" s="11"/>
@@ -27402,7 +27403,7 @@
       <c r="Y736" s="11"/>
       <c r="Z736" s="11"/>
     </row>
-    <row r="737" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="11"/>
       <c r="B737" s="11"/>
       <c r="C737" s="11"/>
@@ -27430,7 +27431,7 @@
       <c r="Y737" s="11"/>
       <c r="Z737" s="11"/>
     </row>
-    <row r="738" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="11"/>
       <c r="B738" s="11"/>
       <c r="C738" s="11"/>
@@ -27458,7 +27459,7 @@
       <c r="Y738" s="11"/>
       <c r="Z738" s="11"/>
     </row>
-    <row r="739" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="11"/>
       <c r="B739" s="11"/>
       <c r="C739" s="11"/>
@@ -27486,7 +27487,7 @@
       <c r="Y739" s="11"/>
       <c r="Z739" s="11"/>
     </row>
-    <row r="740" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="11"/>
       <c r="B740" s="11"/>
       <c r="C740" s="11"/>
@@ -27514,7 +27515,7 @@
       <c r="Y740" s="11"/>
       <c r="Z740" s="11"/>
     </row>
-    <row r="741" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="11"/>
       <c r="B741" s="11"/>
       <c r="C741" s="11"/>
@@ -27542,7 +27543,7 @@
       <c r="Y741" s="11"/>
       <c r="Z741" s="11"/>
     </row>
-    <row r="742" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="11"/>
       <c r="B742" s="11"/>
       <c r="C742" s="11"/>
@@ -27570,7 +27571,7 @@
       <c r="Y742" s="11"/>
       <c r="Z742" s="11"/>
     </row>
-    <row r="743" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="11"/>
       <c r="B743" s="11"/>
       <c r="C743" s="11"/>
@@ -27598,7 +27599,7 @@
       <c r="Y743" s="11"/>
       <c r="Z743" s="11"/>
     </row>
-    <row r="744" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="11"/>
       <c r="B744" s="11"/>
       <c r="C744" s="11"/>
@@ -27626,7 +27627,7 @@
       <c r="Y744" s="11"/>
       <c r="Z744" s="11"/>
     </row>
-    <row r="745" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="11"/>
       <c r="B745" s="11"/>
       <c r="C745" s="11"/>
@@ -27654,7 +27655,7 @@
       <c r="Y745" s="11"/>
       <c r="Z745" s="11"/>
     </row>
-    <row r="746" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="11"/>
       <c r="B746" s="11"/>
       <c r="C746" s="11"/>
@@ -27682,7 +27683,7 @@
       <c r="Y746" s="11"/>
       <c r="Z746" s="11"/>
     </row>
-    <row r="747" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="11"/>
       <c r="B747" s="11"/>
       <c r="C747" s="11"/>
@@ -27710,7 +27711,7 @@
       <c r="Y747" s="11"/>
       <c r="Z747" s="11"/>
     </row>
-    <row r="748" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="11"/>
       <c r="B748" s="11"/>
       <c r="C748" s="11"/>
@@ -27738,7 +27739,7 @@
       <c r="Y748" s="11"/>
       <c r="Z748" s="11"/>
     </row>
-    <row r="749" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="11"/>
       <c r="B749" s="11"/>
       <c r="C749" s="11"/>
@@ -27766,7 +27767,7 @@
       <c r="Y749" s="11"/>
       <c r="Z749" s="11"/>
     </row>
-    <row r="750" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="11"/>
       <c r="B750" s="11"/>
       <c r="C750" s="11"/>
@@ -27794,7 +27795,7 @@
       <c r="Y750" s="11"/>
       <c r="Z750" s="11"/>
     </row>
-    <row r="751" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="11"/>
       <c r="B751" s="11"/>
       <c r="C751" s="11"/>
@@ -27822,7 +27823,7 @@
       <c r="Y751" s="11"/>
       <c r="Z751" s="11"/>
     </row>
-    <row r="752" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="11"/>
       <c r="B752" s="11"/>
       <c r="C752" s="11"/>
@@ -27850,7 +27851,7 @@
       <c r="Y752" s="11"/>
       <c r="Z752" s="11"/>
     </row>
-    <row r="753" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="11"/>
       <c r="B753" s="11"/>
       <c r="C753" s="11"/>
@@ -27878,7 +27879,7 @@
       <c r="Y753" s="11"/>
       <c r="Z753" s="11"/>
     </row>
-    <row r="754" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="11"/>
       <c r="B754" s="11"/>
       <c r="C754" s="11"/>
@@ -27906,7 +27907,7 @@
       <c r="Y754" s="11"/>
       <c r="Z754" s="11"/>
     </row>
-    <row r="755" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="11"/>
       <c r="B755" s="11"/>
       <c r="C755" s="11"/>
@@ -27934,7 +27935,7 @@
       <c r="Y755" s="11"/>
       <c r="Z755" s="11"/>
     </row>
-    <row r="756" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="11"/>
       <c r="B756" s="11"/>
       <c r="C756" s="11"/>
@@ -27962,7 +27963,7 @@
       <c r="Y756" s="11"/>
       <c r="Z756" s="11"/>
     </row>
-    <row r="757" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="11"/>
       <c r="B757" s="11"/>
       <c r="C757" s="11"/>
@@ -27990,7 +27991,7 @@
       <c r="Y757" s="11"/>
       <c r="Z757" s="11"/>
     </row>
-    <row r="758" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="11"/>
       <c r="B758" s="11"/>
       <c r="C758" s="11"/>
@@ -28018,7 +28019,7 @@
       <c r="Y758" s="11"/>
       <c r="Z758" s="11"/>
     </row>
-    <row r="759" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="11"/>
       <c r="B759" s="11"/>
       <c r="C759" s="11"/>
@@ -28046,7 +28047,7 @@
       <c r="Y759" s="11"/>
       <c r="Z759" s="11"/>
     </row>
-    <row r="760" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="11"/>
       <c r="B760" s="11"/>
       <c r="C760" s="11"/>
@@ -28074,7 +28075,7 @@
       <c r="Y760" s="11"/>
       <c r="Z760" s="11"/>
     </row>
-    <row r="761" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="11"/>
       <c r="B761" s="11"/>
       <c r="C761" s="11"/>
@@ -28102,7 +28103,7 @@
       <c r="Y761" s="11"/>
       <c r="Z761" s="11"/>
     </row>
-    <row r="762" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="11"/>
       <c r="B762" s="11"/>
       <c r="C762" s="11"/>
@@ -28130,7 +28131,7 @@
       <c r="Y762" s="11"/>
       <c r="Z762" s="11"/>
     </row>
-    <row r="763" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="11"/>
       <c r="B763" s="11"/>
       <c r="C763" s="11"/>
@@ -28158,7 +28159,7 @@
       <c r="Y763" s="11"/>
       <c r="Z763" s="11"/>
     </row>
-    <row r="764" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="11"/>
       <c r="B764" s="11"/>
       <c r="C764" s="11"/>
@@ -28186,7 +28187,7 @@
       <c r="Y764" s="11"/>
       <c r="Z764" s="11"/>
     </row>
-    <row r="765" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="11"/>
       <c r="B765" s="11"/>
       <c r="C765" s="11"/>
@@ -28214,7 +28215,7 @@
       <c r="Y765" s="11"/>
       <c r="Z765" s="11"/>
     </row>
-    <row r="766" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="11"/>
       <c r="B766" s="11"/>
       <c r="C766" s="11"/>
@@ -28242,7 +28243,7 @@
       <c r="Y766" s="11"/>
       <c r="Z766" s="11"/>
     </row>
-    <row r="767" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="11"/>
       <c r="B767" s="11"/>
       <c r="C767" s="11"/>
@@ -28270,7 +28271,7 @@
       <c r="Y767" s="11"/>
       <c r="Z767" s="11"/>
     </row>
-    <row r="768" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="11"/>
       <c r="B768" s="11"/>
       <c r="C768" s="11"/>
@@ -28298,7 +28299,7 @@
       <c r="Y768" s="11"/>
       <c r="Z768" s="11"/>
     </row>
-    <row r="769" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="11"/>
       <c r="B769" s="11"/>
       <c r="C769" s="11"/>
@@ -28326,7 +28327,7 @@
       <c r="Y769" s="11"/>
       <c r="Z769" s="11"/>
     </row>
-    <row r="770" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="11"/>
       <c r="B770" s="11"/>
       <c r="C770" s="11"/>
@@ -28354,7 +28355,7 @@
       <c r="Y770" s="11"/>
       <c r="Z770" s="11"/>
     </row>
-    <row r="771" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="11"/>
       <c r="B771" s="11"/>
       <c r="C771" s="11"/>
@@ -28382,7 +28383,7 @@
       <c r="Y771" s="11"/>
       <c r="Z771" s="11"/>
     </row>
-    <row r="772" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="11"/>
       <c r="B772" s="11"/>
       <c r="C772" s="11"/>
@@ -28410,7 +28411,7 @@
       <c r="Y772" s="11"/>
       <c r="Z772" s="11"/>
     </row>
-    <row r="773" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="11"/>
       <c r="B773" s="11"/>
       <c r="C773" s="11"/>
@@ -28438,7 +28439,7 @@
       <c r="Y773" s="11"/>
       <c r="Z773" s="11"/>
     </row>
-    <row r="774" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="11"/>
       <c r="B774" s="11"/>
       <c r="C774" s="11"/>
@@ -28466,7 +28467,7 @@
       <c r="Y774" s="11"/>
       <c r="Z774" s="11"/>
     </row>
-    <row r="775" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="11"/>
       <c r="B775" s="11"/>
       <c r="C775" s="11"/>
@@ -28494,7 +28495,7 @@
       <c r="Y775" s="11"/>
       <c r="Z775" s="11"/>
     </row>
-    <row r="776" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="11"/>
       <c r="B776" s="11"/>
       <c r="C776" s="11"/>
@@ -28522,7 +28523,7 @@
       <c r="Y776" s="11"/>
       <c r="Z776" s="11"/>
     </row>
-    <row r="777" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="11"/>
       <c r="B777" s="11"/>
       <c r="C777" s="11"/>
@@ -28550,7 +28551,7 @@
       <c r="Y777" s="11"/>
       <c r="Z777" s="11"/>
     </row>
-    <row r="778" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="11"/>
       <c r="B778" s="11"/>
       <c r="C778" s="11"/>
@@ -28578,7 +28579,7 @@
       <c r="Y778" s="11"/>
       <c r="Z778" s="11"/>
     </row>
-    <row r="779" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="11"/>
       <c r="B779" s="11"/>
       <c r="C779" s="11"/>
@@ -28606,7 +28607,7 @@
       <c r="Y779" s="11"/>
       <c r="Z779" s="11"/>
     </row>
-    <row r="780" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="11"/>
       <c r="B780" s="11"/>
       <c r="C780" s="11"/>
@@ -28634,7 +28635,7 @@
       <c r="Y780" s="11"/>
       <c r="Z780" s="11"/>
     </row>
-    <row r="781" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="11"/>
       <c r="B781" s="11"/>
       <c r="C781" s="11"/>
@@ -28662,7 +28663,7 @@
       <c r="Y781" s="11"/>
       <c r="Z781" s="11"/>
     </row>
-    <row r="782" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="11"/>
       <c r="B782" s="11"/>
       <c r="C782" s="11"/>
@@ -28690,7 +28691,7 @@
       <c r="Y782" s="11"/>
       <c r="Z782" s="11"/>
     </row>
-    <row r="783" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="11"/>
       <c r="B783" s="11"/>
       <c r="C783" s="11"/>
@@ -28718,7 +28719,7 @@
       <c r="Y783" s="11"/>
       <c r="Z783" s="11"/>
     </row>
-    <row r="784" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="11"/>
       <c r="B784" s="11"/>
       <c r="C784" s="11"/>
@@ -28746,7 +28747,7 @@
       <c r="Y784" s="11"/>
       <c r="Z784" s="11"/>
     </row>
-    <row r="785" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="11"/>
       <c r="B785" s="11"/>
       <c r="C785" s="11"/>
@@ -28774,7 +28775,7 @@
       <c r="Y785" s="11"/>
       <c r="Z785" s="11"/>
     </row>
-    <row r="786" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="11"/>
       <c r="B786" s="11"/>
       <c r="C786" s="11"/>
@@ -28802,7 +28803,7 @@
       <c r="Y786" s="11"/>
       <c r="Z786" s="11"/>
     </row>
-    <row r="787" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="11"/>
       <c r="B787" s="11"/>
       <c r="C787" s="11"/>
@@ -28830,7 +28831,7 @@
       <c r="Y787" s="11"/>
       <c r="Z787" s="11"/>
     </row>
-    <row r="788" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="11"/>
       <c r="B788" s="11"/>
       <c r="C788" s="11"/>
@@ -28858,7 +28859,7 @@
       <c r="Y788" s="11"/>
       <c r="Z788" s="11"/>
     </row>
-    <row r="789" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="11"/>
       <c r="B789" s="11"/>
       <c r="C789" s="11"/>
@@ -28886,7 +28887,7 @@
       <c r="Y789" s="11"/>
       <c r="Z789" s="11"/>
     </row>
-    <row r="790" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="11"/>
       <c r="B790" s="11"/>
       <c r="C790" s="11"/>
@@ -28914,7 +28915,7 @@
       <c r="Y790" s="11"/>
       <c r="Z790" s="11"/>
     </row>
-    <row r="791" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="11"/>
       <c r="B791" s="11"/>
       <c r="C791" s="11"/>
@@ -28942,7 +28943,7 @@
       <c r="Y791" s="11"/>
       <c r="Z791" s="11"/>
     </row>
-    <row r="792" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="11"/>
       <c r="B792" s="11"/>
       <c r="C792" s="11"/>
@@ -28970,7 +28971,7 @@
       <c r="Y792" s="11"/>
       <c r="Z792" s="11"/>
     </row>
-    <row r="793" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="11"/>
       <c r="B793" s="11"/>
       <c r="C793" s="11"/>
@@ -28998,7 +28999,7 @@
       <c r="Y793" s="11"/>
       <c r="Z793" s="11"/>
     </row>
-    <row r="794" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="11"/>
       <c r="B794" s="11"/>
       <c r="C794" s="11"/>
@@ -29026,7 +29027,7 @@
       <c r="Y794" s="11"/>
       <c r="Z794" s="11"/>
     </row>
-    <row r="795" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="11"/>
       <c r="B795" s="11"/>
       <c r="C795" s="11"/>
@@ -29054,7 +29055,7 @@
       <c r="Y795" s="11"/>
       <c r="Z795" s="11"/>
     </row>
-    <row r="796" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="11"/>
       <c r="B796" s="11"/>
       <c r="C796" s="11"/>
@@ -29082,7 +29083,7 @@
       <c r="Y796" s="11"/>
       <c r="Z796" s="11"/>
     </row>
-    <row r="797" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="11"/>
       <c r="B797" s="11"/>
       <c r="C797" s="11"/>
@@ -29110,7 +29111,7 @@
       <c r="Y797" s="11"/>
       <c r="Z797" s="11"/>
     </row>
-    <row r="798" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="11"/>
       <c r="B798" s="11"/>
       <c r="C798" s="11"/>
@@ -29138,7 +29139,7 @@
       <c r="Y798" s="11"/>
       <c r="Z798" s="11"/>
     </row>
-    <row r="799" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="11"/>
       <c r="B799" s="11"/>
       <c r="C799" s="11"/>
@@ -29166,7 +29167,7 @@
       <c r="Y799" s="11"/>
       <c r="Z799" s="11"/>
     </row>
-    <row r="800" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="11"/>
       <c r="B800" s="11"/>
       <c r="C800" s="11"/>
@@ -29194,7 +29195,7 @@
       <c r="Y800" s="11"/>
       <c r="Z800" s="11"/>
     </row>
-    <row r="801" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="11"/>
       <c r="B801" s="11"/>
       <c r="C801" s="11"/>
@@ -29222,7 +29223,7 @@
       <c r="Y801" s="11"/>
       <c r="Z801" s="11"/>
     </row>
-    <row r="802" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="11"/>
       <c r="B802" s="11"/>
       <c r="C802" s="11"/>
@@ -29250,7 +29251,7 @@
       <c r="Y802" s="11"/>
       <c r="Z802" s="11"/>
     </row>
-    <row r="803" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="11"/>
       <c r="B803" s="11"/>
       <c r="C803" s="11"/>
@@ -29278,7 +29279,7 @@
       <c r="Y803" s="11"/>
       <c r="Z803" s="11"/>
     </row>
-    <row r="804" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="11"/>
       <c r="B804" s="11"/>
       <c r="C804" s="11"/>
@@ -29306,7 +29307,7 @@
       <c r="Y804" s="11"/>
       <c r="Z804" s="11"/>
     </row>
-    <row r="805" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="11"/>
       <c r="B805" s="11"/>
       <c r="C805" s="11"/>
@@ -29334,7 +29335,7 @@
       <c r="Y805" s="11"/>
       <c r="Z805" s="11"/>
     </row>
-    <row r="806" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="11"/>
       <c r="B806" s="11"/>
       <c r="C806" s="11"/>
@@ -29362,7 +29363,7 @@
       <c r="Y806" s="11"/>
       <c r="Z806" s="11"/>
     </row>
-    <row r="807" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="11"/>
       <c r="B807" s="11"/>
       <c r="C807" s="11"/>
@@ -29390,7 +29391,7 @@
       <c r="Y807" s="11"/>
       <c r="Z807" s="11"/>
     </row>
-    <row r="808" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="11"/>
       <c r="B808" s="11"/>
       <c r="C808" s="11"/>
@@ -29418,7 +29419,7 @@
       <c r="Y808" s="11"/>
       <c r="Z808" s="11"/>
     </row>
-    <row r="809" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="11"/>
       <c r="B809" s="11"/>
       <c r="C809" s="11"/>
@@ -29446,7 +29447,7 @@
       <c r="Y809" s="11"/>
       <c r="Z809" s="11"/>
     </row>
-    <row r="810" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="11"/>
       <c r="B810" s="11"/>
       <c r="C810" s="11"/>
@@ -29474,7 +29475,7 @@
       <c r="Y810" s="11"/>
       <c r="Z810" s="11"/>
     </row>
-    <row r="811" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="11"/>
       <c r="B811" s="11"/>
       <c r="C811" s="11"/>
@@ -29502,7 +29503,7 @@
       <c r="Y811" s="11"/>
       <c r="Z811" s="11"/>
     </row>
-    <row r="812" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="11"/>
       <c r="B812" s="11"/>
       <c r="C812" s="11"/>
@@ -29530,7 +29531,7 @@
       <c r="Y812" s="11"/>
       <c r="Z812" s="11"/>
     </row>
-    <row r="813" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="11"/>
       <c r="B813" s="11"/>
       <c r="C813" s="11"/>
@@ -29558,7 +29559,7 @@
       <c r="Y813" s="11"/>
       <c r="Z813" s="11"/>
     </row>
-    <row r="814" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="11"/>
       <c r="B814" s="11"/>
       <c r="C814" s="11"/>
@@ -29586,7 +29587,7 @@
       <c r="Y814" s="11"/>
       <c r="Z814" s="11"/>
     </row>
-    <row r="815" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="11"/>
       <c r="B815" s="11"/>
       <c r="C815" s="11"/>
@@ -29614,7 +29615,7 @@
       <c r="Y815" s="11"/>
       <c r="Z815" s="11"/>
     </row>
-    <row r="816" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="11"/>
       <c r="B816" s="11"/>
       <c r="C816" s="11"/>
@@ -29642,7 +29643,7 @@
       <c r="Y816" s="11"/>
       <c r="Z816" s="11"/>
     </row>
-    <row r="817" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="11"/>
       <c r="B817" s="11"/>
       <c r="C817" s="11"/>
@@ -29670,7 +29671,7 @@
       <c r="Y817" s="11"/>
       <c r="Z817" s="11"/>
     </row>
-    <row r="818" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="11"/>
       <c r="B818" s="11"/>
       <c r="C818" s="11"/>
@@ -29698,7 +29699,7 @@
       <c r="Y818" s="11"/>
       <c r="Z818" s="11"/>
     </row>
-    <row r="819" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="11"/>
       <c r="B819" s="11"/>
       <c r="C819" s="11"/>
@@ -29726,7 +29727,7 @@
       <c r="Y819" s="11"/>
       <c r="Z819" s="11"/>
     </row>
-    <row r="820" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="11"/>
       <c r="B820" s="11"/>
       <c r="C820" s="11"/>
@@ -29754,7 +29755,7 @@
       <c r="Y820" s="11"/>
       <c r="Z820" s="11"/>
     </row>
-    <row r="821" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="11"/>
       <c r="B821" s="11"/>
       <c r="C821" s="11"/>
@@ -29782,7 +29783,7 @@
       <c r="Y821" s="11"/>
       <c r="Z821" s="11"/>
     </row>
-    <row r="822" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="11"/>
       <c r="B822" s="11"/>
       <c r="C822" s="11"/>
@@ -29810,7 +29811,7 @@
       <c r="Y822" s="11"/>
       <c r="Z822" s="11"/>
     </row>
-    <row r="823" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="11"/>
       <c r="B823" s="11"/>
       <c r="C823" s="11"/>
@@ -29838,7 +29839,7 @@
       <c r="Y823" s="11"/>
       <c r="Z823" s="11"/>
     </row>
-    <row r="824" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="11"/>
       <c r="B824" s="11"/>
       <c r="C824" s="11"/>
@@ -29866,7 +29867,7 @@
       <c r="Y824" s="11"/>
       <c r="Z824" s="11"/>
     </row>
-    <row r="825" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="11"/>
       <c r="B825" s="11"/>
       <c r="C825" s="11"/>
@@ -29894,7 +29895,7 @@
       <c r="Y825" s="11"/>
       <c r="Z825" s="11"/>
     </row>
-    <row r="826" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="11"/>
       <c r="B826" s="11"/>
       <c r="C826" s="11"/>
@@ -29922,7 +29923,7 @@
       <c r="Y826" s="11"/>
       <c r="Z826" s="11"/>
     </row>
-    <row r="827" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="11"/>
       <c r="B827" s="11"/>
       <c r="C827" s="11"/>
@@ -29950,7 +29951,7 @@
       <c r="Y827" s="11"/>
       <c r="Z827" s="11"/>
     </row>
-    <row r="828" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="11"/>
       <c r="B828" s="11"/>
       <c r="C828" s="11"/>
@@ -29978,7 +29979,7 @@
       <c r="Y828" s="11"/>
       <c r="Z828" s="11"/>
     </row>
-    <row r="829" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="11"/>
       <c r="B829" s="11"/>
       <c r="C829" s="11"/>
@@ -30006,7 +30007,7 @@
       <c r="Y829" s="11"/>
       <c r="Z829" s="11"/>
     </row>
-    <row r="830" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="11"/>
       <c r="B830" s="11"/>
       <c r="C830" s="11"/>
@@ -30034,7 +30035,7 @@
       <c r="Y830" s="11"/>
       <c r="Z830" s="11"/>
     </row>
-    <row r="831" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="11"/>
       <c r="B831" s="11"/>
       <c r="C831" s="11"/>
@@ -30062,7 +30063,7 @@
       <c r="Y831" s="11"/>
       <c r="Z831" s="11"/>
     </row>
-    <row r="832" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="11"/>
       <c r="B832" s="11"/>
       <c r="C832" s="11"/>
@@ -30090,7 +30091,7 @@
       <c r="Y832" s="11"/>
       <c r="Z832" s="11"/>
     </row>
-    <row r="833" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="11"/>
       <c r="B833" s="11"/>
       <c r="C833" s="11"/>
@@ -30118,7 +30119,7 @@
       <c r="Y833" s="11"/>
       <c r="Z833" s="11"/>
     </row>
-    <row r="834" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="11"/>
       <c r="B834" s="11"/>
       <c r="C834" s="11"/>
@@ -30146,7 +30147,7 @@
       <c r="Y834" s="11"/>
       <c r="Z834" s="11"/>
     </row>
-    <row r="835" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="11"/>
       <c r="B835" s="11"/>
       <c r="C835" s="11"/>
@@ -30174,7 +30175,7 @@
       <c r="Y835" s="11"/>
       <c r="Z835" s="11"/>
     </row>
-    <row r="836" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="11"/>
       <c r="B836" s="11"/>
       <c r="C836" s="11"/>
@@ -30202,7 +30203,7 @@
       <c r="Y836" s="11"/>
       <c r="Z836" s="11"/>
     </row>
-    <row r="837" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="11"/>
       <c r="B837" s="11"/>
       <c r="C837" s="11"/>
@@ -30230,7 +30231,7 @@
       <c r="Y837" s="11"/>
       <c r="Z837" s="11"/>
     </row>
-    <row r="838" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="11"/>
       <c r="B838" s="11"/>
       <c r="C838" s="11"/>
@@ -30258,7 +30259,7 @@
       <c r="Y838" s="11"/>
       <c r="Z838" s="11"/>
     </row>
-    <row r="839" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="11"/>
       <c r="B839" s="11"/>
       <c r="C839" s="11"/>
@@ -30286,7 +30287,7 @@
       <c r="Y839" s="11"/>
       <c r="Z839" s="11"/>
     </row>
-    <row r="840" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="11"/>
       <c r="B840" s="11"/>
       <c r="C840" s="11"/>
@@ -30314,7 +30315,7 @@
       <c r="Y840" s="11"/>
       <c r="Z840" s="11"/>
     </row>
-    <row r="841" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="11"/>
       <c r="B841" s="11"/>
       <c r="C841" s="11"/>
@@ -30342,7 +30343,7 @@
       <c r="Y841" s="11"/>
       <c r="Z841" s="11"/>
     </row>
-    <row r="842" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="11"/>
       <c r="B842" s="11"/>
       <c r="C842" s="11"/>
@@ -30370,7 +30371,7 @@
       <c r="Y842" s="11"/>
       <c r="Z842" s="11"/>
     </row>
-    <row r="843" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="11"/>
       <c r="B843" s="11"/>
       <c r="C843" s="11"/>
@@ -30398,7 +30399,7 @@
       <c r="Y843" s="11"/>
       <c r="Z843" s="11"/>
     </row>
-    <row r="844" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="11"/>
       <c r="B844" s="11"/>
       <c r="C844" s="11"/>
@@ -30426,7 +30427,7 @@
       <c r="Y844" s="11"/>
       <c r="Z844" s="11"/>
     </row>
-    <row r="845" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="11"/>
       <c r="B845" s="11"/>
       <c r="C845" s="11"/>
@@ -30454,7 +30455,7 @@
       <c r="Y845" s="11"/>
       <c r="Z845" s="11"/>
     </row>
-    <row r="846" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="11"/>
       <c r="B846" s="11"/>
       <c r="C846" s="11"/>
@@ -30482,7 +30483,7 @@
       <c r="Y846" s="11"/>
       <c r="Z846" s="11"/>
     </row>
-    <row r="847" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="11"/>
       <c r="B847" s="11"/>
       <c r="C847" s="11"/>
@@ -30510,7 +30511,7 @@
       <c r="Y847" s="11"/>
       <c r="Z847" s="11"/>
     </row>
-    <row r="848" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="11"/>
       <c r="B848" s="11"/>
       <c r="C848" s="11"/>
@@ -30538,7 +30539,7 @@
       <c r="Y848" s="11"/>
       <c r="Z848" s="11"/>
     </row>
-    <row r="849" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="11"/>
       <c r="B849" s="11"/>
       <c r="C849" s="11"/>
@@ -30566,7 +30567,7 @@
       <c r="Y849" s="11"/>
       <c r="Z849" s="11"/>
     </row>
-    <row r="850" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="11"/>
       <c r="B850" s="11"/>
       <c r="C850" s="11"/>
@@ -30594,7 +30595,7 @@
       <c r="Y850" s="11"/>
       <c r="Z850" s="11"/>
     </row>
-    <row r="851" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="11"/>
       <c r="B851" s="11"/>
       <c r="C851" s="11"/>
@@ -30622,7 +30623,7 @@
       <c r="Y851" s="11"/>
       <c r="Z851" s="11"/>
     </row>
-    <row r="852" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="11"/>
       <c r="B852" s="11"/>
       <c r="C852" s="11"/>
@@ -30650,7 +30651,7 @@
       <c r="Y852" s="11"/>
       <c r="Z852" s="11"/>
     </row>
-    <row r="853" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="11"/>
       <c r="B853" s="11"/>
       <c r="C853" s="11"/>
@@ -30678,7 +30679,7 @@
       <c r="Y853" s="11"/>
       <c r="Z853" s="11"/>
     </row>
-    <row r="854" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="11"/>
       <c r="B854" s="11"/>
       <c r="C854" s="11"/>
@@ -30706,7 +30707,7 @@
       <c r="Y854" s="11"/>
       <c r="Z854" s="11"/>
     </row>
-    <row r="855" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="11"/>
       <c r="B855" s="11"/>
       <c r="C855" s="11"/>
@@ -30734,7 +30735,7 @@
       <c r="Y855" s="11"/>
       <c r="Z855" s="11"/>
     </row>
-    <row r="856" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="11"/>
       <c r="B856" s="11"/>
       <c r="C856" s="11"/>
@@ -30762,7 +30763,7 @@
       <c r="Y856" s="11"/>
       <c r="Z856" s="11"/>
     </row>
-    <row r="857" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="11"/>
       <c r="B857" s="11"/>
       <c r="C857" s="11"/>
@@ -30790,7 +30791,7 @@
       <c r="Y857" s="11"/>
       <c r="Z857" s="11"/>
     </row>
-    <row r="858" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="11"/>
       <c r="B858" s="11"/>
       <c r="C858" s="11"/>
@@ -30818,7 +30819,7 @@
       <c r="Y858" s="11"/>
       <c r="Z858" s="11"/>
     </row>
-    <row r="859" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="11"/>
       <c r="B859" s="11"/>
       <c r="C859" s="11"/>
@@ -30846,7 +30847,7 @@
       <c r="Y859" s="11"/>
       <c r="Z859" s="11"/>
     </row>
-    <row r="860" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="11"/>
       <c r="B860" s="11"/>
       <c r="C860" s="11"/>
@@ -30874,7 +30875,7 @@
       <c r="Y860" s="11"/>
       <c r="Z860" s="11"/>
     </row>
-    <row r="861" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="11"/>
       <c r="B861" s="11"/>
       <c r="C861" s="11"/>
@@ -30902,7 +30903,7 @@
       <c r="Y861" s="11"/>
       <c r="Z861" s="11"/>
     </row>
-    <row r="862" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="11"/>
       <c r="B862" s="11"/>
       <c r="C862" s="11"/>
@@ -30930,7 +30931,7 @@
       <c r="Y862" s="11"/>
       <c r="Z862" s="11"/>
     </row>
-    <row r="863" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="11"/>
       <c r="B863" s="11"/>
       <c r="C863" s="11"/>
@@ -30958,7 +30959,7 @@
       <c r="Y863" s="11"/>
       <c r="Z863" s="11"/>
     </row>
-    <row r="864" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="11"/>
       <c r="B864" s="11"/>
       <c r="C864" s="11"/>
@@ -30986,7 +30987,7 @@
       <c r="Y864" s="11"/>
       <c r="Z864" s="11"/>
     </row>
-    <row r="865" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="11"/>
       <c r="B865" s="11"/>
       <c r="C865" s="11"/>
@@ -31014,7 +31015,7 @@
       <c r="Y865" s="11"/>
       <c r="Z865" s="11"/>
     </row>
-    <row r="866" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="11"/>
       <c r="B866" s="11"/>
       <c r="C866" s="11"/>
@@ -31042,7 +31043,7 @@
       <c r="Y866" s="11"/>
       <c r="Z866" s="11"/>
     </row>
-    <row r="867" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="11"/>
       <c r="B867" s="11"/>
       <c r="C867" s="11"/>
@@ -31070,7 +31071,7 @@
       <c r="Y867" s="11"/>
       <c r="Z867" s="11"/>
     </row>
-    <row r="868" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="11"/>
       <c r="B868" s="11"/>
       <c r="C868" s="11"/>
@@ -31098,7 +31099,7 @@
       <c r="Y868" s="11"/>
       <c r="Z868" s="11"/>
     </row>
-    <row r="869" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="11"/>
       <c r="B869" s="11"/>
       <c r="C869" s="11"/>
@@ -31126,7 +31127,7 @@
       <c r="Y869" s="11"/>
       <c r="Z869" s="11"/>
     </row>
-    <row r="870" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="11"/>
       <c r="B870" s="11"/>
       <c r="C870" s="11"/>
@@ -31154,7 +31155,7 @@
       <c r="Y870" s="11"/>
       <c r="Z870" s="11"/>
     </row>
-    <row r="871" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="11"/>
       <c r="B871" s="11"/>
       <c r="C871" s="11"/>
@@ -31182,7 +31183,7 @@
       <c r="Y871" s="11"/>
       <c r="Z871" s="11"/>
     </row>
-    <row r="872" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="11"/>
       <c r="B872" s="11"/>
       <c r="C872" s="11"/>
@@ -31210,7 +31211,7 @@
       <c r="Y872" s="11"/>
       <c r="Z872" s="11"/>
     </row>
-    <row r="873" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="11"/>
       <c r="B873" s="11"/>
       <c r="C873" s="11"/>
@@ -31238,7 +31239,7 @@
       <c r="Y873" s="11"/>
       <c r="Z873" s="11"/>
     </row>
-    <row r="874" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="11"/>
       <c r="B874" s="11"/>
       <c r="C874" s="11"/>
@@ -31266,7 +31267,7 @@
       <c r="Y874" s="11"/>
       <c r="Z874" s="11"/>
     </row>
-    <row r="875" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="11"/>
       <c r="B875" s="11"/>
       <c r="C875" s="11"/>
@@ -31294,7 +31295,7 @@
       <c r="Y875" s="11"/>
       <c r="Z875" s="11"/>
     </row>
-    <row r="876" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="11"/>
       <c r="B876" s="11"/>
       <c r="C876" s="11"/>
@@ -31322,7 +31323,7 @@
       <c r="Y876" s="11"/>
       <c r="Z876" s="11"/>
     </row>
-    <row r="877" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="11"/>
       <c r="B877" s="11"/>
       <c r="C877" s="11"/>
@@ -31350,7 +31351,7 @@
       <c r="Y877" s="11"/>
       <c r="Z877" s="11"/>
     </row>
-    <row r="878" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="11"/>
       <c r="B878" s="11"/>
       <c r="C878" s="11"/>
@@ -31378,7 +31379,7 @@
       <c r="Y878" s="11"/>
       <c r="Z878" s="11"/>
     </row>
-    <row r="879" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="11"/>
       <c r="B879" s="11"/>
       <c r="C879" s="11"/>
@@ -31406,7 +31407,7 @@
       <c r="Y879" s="11"/>
       <c r="Z879" s="11"/>
     </row>
-    <row r="880" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="11"/>
       <c r="B880" s="11"/>
       <c r="C880" s="11"/>
@@ -31434,7 +31435,7 @@
       <c r="Y880" s="11"/>
       <c r="Z880" s="11"/>
     </row>
-    <row r="881" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="11"/>
       <c r="B881" s="11"/>
       <c r="C881" s="11"/>
@@ -31462,7 +31463,7 @@
       <c r="Y881" s="11"/>
       <c r="Z881" s="11"/>
     </row>
-    <row r="882" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="11"/>
       <c r="B882" s="11"/>
       <c r="C882" s="11"/>
@@ -31490,7 +31491,7 @@
       <c r="Y882" s="11"/>
       <c r="Z882" s="11"/>
     </row>
-    <row r="883" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="11"/>
       <c r="B883" s="11"/>
       <c r="C883" s="11"/>
@@ -31518,7 +31519,7 @@
       <c r="Y883" s="11"/>
       <c r="Z883" s="11"/>
     </row>
-    <row r="884" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="11"/>
       <c r="B884" s="11"/>
       <c r="C884" s="11"/>
@@ -31546,7 +31547,7 @@
       <c r="Y884" s="11"/>
       <c r="Z884" s="11"/>
     </row>
-    <row r="885" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="11"/>
       <c r="B885" s="11"/>
       <c r="C885" s="11"/>
@@ -31574,7 +31575,7 @@
       <c r="Y885" s="11"/>
       <c r="Z885" s="11"/>
     </row>
-    <row r="886" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="11"/>
       <c r="B886" s="11"/>
       <c r="C886" s="11"/>
@@ -31602,7 +31603,7 @@
       <c r="Y886" s="11"/>
       <c r="Z886" s="11"/>
     </row>
-    <row r="887" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="11"/>
       <c r="B887" s="11"/>
       <c r="C887" s="11"/>
@@ -31630,7 +31631,7 @@
       <c r="Y887" s="11"/>
       <c r="Z887" s="11"/>
     </row>
-    <row r="888" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="11"/>
       <c r="B888" s="11"/>
       <c r="C888" s="11"/>
@@ -31658,7 +31659,7 @@
       <c r="Y888" s="11"/>
       <c r="Z888" s="11"/>
     </row>
-    <row r="889" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="11"/>
       <c r="B889" s="11"/>
       <c r="C889" s="11"/>
@@ -31686,7 +31687,7 @@
       <c r="Y889" s="11"/>
       <c r="Z889" s="11"/>
     </row>
-    <row r="890" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="11"/>
       <c r="B890" s="11"/>
       <c r="C890" s="11"/>
@@ -31714,7 +31715,7 @@
       <c r="Y890" s="11"/>
       <c r="Z890" s="11"/>
     </row>
-    <row r="891" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="11"/>
       <c r="B891" s="11"/>
       <c r="C891" s="11"/>
@@ -31742,7 +31743,7 @@
       <c r="Y891" s="11"/>
       <c r="Z891" s="11"/>
     </row>
-    <row r="892" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="11"/>
       <c r="B892" s="11"/>
       <c r="C892" s="11"/>
@@ -31770,7 +31771,7 @@
       <c r="Y892" s="11"/>
       <c r="Z892" s="11"/>
     </row>
-    <row r="893" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="11"/>
       <c r="B893" s="11"/>
       <c r="C893" s="11"/>
@@ -31798,7 +31799,7 @@
       <c r="Y893" s="11"/>
       <c r="Z893" s="11"/>
     </row>
-    <row r="894" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="11"/>
       <c r="B894" s="11"/>
       <c r="C894" s="11"/>
@@ -31826,7 +31827,7 @@
       <c r="Y894" s="11"/>
       <c r="Z894" s="11"/>
     </row>
-    <row r="895" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="11"/>
       <c r="B895" s="11"/>
       <c r="C895" s="11"/>
@@ -31854,7 +31855,7 @@
       <c r="Y895" s="11"/>
       <c r="Z895" s="11"/>
     </row>
-    <row r="896" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="11"/>
       <c r="B896" s="11"/>
       <c r="C896" s="11"/>
@@ -31882,7 +31883,7 @@
       <c r="Y896" s="11"/>
       <c r="Z896" s="11"/>
     </row>
-    <row r="897" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="11"/>
       <c r="B897" s="11"/>
       <c r="C897" s="11"/>
@@ -31910,7 +31911,7 @@
       <c r="Y897" s="11"/>
       <c r="Z897" s="11"/>
     </row>
-    <row r="898" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="11"/>
       <c r="B898" s="11"/>
       <c r="C898" s="11"/>
@@ -31938,7 +31939,7 @@
       <c r="Y898" s="11"/>
       <c r="Z898" s="11"/>
     </row>
-    <row r="899" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="11"/>
       <c r="B899" s="11"/>
       <c r="C899" s="11"/>
@@ -31966,7 +31967,7 @@
       <c r="Y899" s="11"/>
       <c r="Z899" s="11"/>
     </row>
-    <row r="900" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="11"/>
       <c r="B900" s="11"/>
       <c r="C900" s="11"/>
@@ -31994,7 +31995,7 @@
       <c r="Y900" s="11"/>
       <c r="Z900" s="11"/>
     </row>
-    <row r="901" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="11"/>
       <c r="B901" s="11"/>
       <c r="C901" s="11"/>
@@ -32022,7 +32023,7 @@
       <c r="Y901" s="11"/>
       <c r="Z901" s="11"/>
     </row>
-    <row r="902" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="11"/>
       <c r="B902" s="11"/>
       <c r="C902" s="11"/>
@@ -32050,7 +32051,7 @@
       <c r="Y902" s="11"/>
       <c r="Z902" s="11"/>
     </row>
-    <row r="903" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="11"/>
       <c r="B903" s="11"/>
       <c r="C903" s="11"/>
@@ -32078,7 +32079,7 @@
       <c r="Y903" s="11"/>
       <c r="Z903" s="11"/>
     </row>
-    <row r="904" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="11"/>
       <c r="B904" s="11"/>
       <c r="C904" s="11"/>
@@ -32106,7 +32107,7 @@
       <c r="Y904" s="11"/>
       <c r="Z904" s="11"/>
     </row>
-    <row r="905" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="11"/>
       <c r="B905" s="11"/>
       <c r="C905" s="11"/>
@@ -32134,7 +32135,7 @@
       <c r="Y905" s="11"/>
       <c r="Z905" s="11"/>
     </row>
-    <row r="906" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="11"/>
       <c r="B906" s="11"/>
       <c r="C906" s="11"/>
@@ -32162,7 +32163,7 @@
       <c r="Y906" s="11"/>
       <c r="Z906" s="11"/>
     </row>
-    <row r="907" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="11"/>
       <c r="B907" s="11"/>
       <c r="C907" s="11"/>
@@ -32190,7 +32191,7 @@
       <c r="Y907" s="11"/>
       <c r="Z907" s="11"/>
     </row>
-    <row r="908" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="11"/>
       <c r="B908" s="11"/>
       <c r="C908" s="11"/>
@@ -32218,7 +32219,7 @@
       <c r="Y908" s="11"/>
       <c r="Z908" s="11"/>
     </row>
-    <row r="909" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="11"/>
       <c r="B909" s="11"/>
       <c r="C909" s="11"/>
@@ -32246,7 +32247,7 @@
       <c r="Y909" s="11"/>
       <c r="Z909" s="11"/>
     </row>
-    <row r="910" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="11"/>
       <c r="B910" s="11"/>
       <c r="C910" s="11"/>
@@ -32274,7 +32275,7 @@
       <c r="Y910" s="11"/>
       <c r="Z910" s="11"/>
     </row>
-    <row r="911" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="11"/>
       <c r="B911" s="11"/>
       <c r="C911" s="11"/>
@@ -32302,7 +32303,7 @@
       <c r="Y911" s="11"/>
       <c r="Z911" s="11"/>
     </row>
-    <row r="912" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="11"/>
       <c r="B912" s="11"/>
       <c r="C912" s="11"/>
@@ -32330,7 +32331,7 @@
       <c r="Y912" s="11"/>
       <c r="Z912" s="11"/>
     </row>
-    <row r="913" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="11"/>
       <c r="B913" s="11"/>
       <c r="C913" s="11"/>
@@ -32358,7 +32359,7 @@
       <c r="Y913" s="11"/>
       <c r="Z913" s="11"/>
     </row>
-    <row r="914" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="11"/>
       <c r="B914" s="11"/>
       <c r="C914" s="11"/>
@@ -32386,7 +32387,7 @@
       <c r="Y914" s="11"/>
       <c r="Z914" s="11"/>
     </row>
-    <row r="915" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="11"/>
       <c r="B915" s="11"/>
       <c r="C915" s="11"/>
@@ -32414,7 +32415,7 @@
       <c r="Y915" s="11"/>
       <c r="Z915" s="11"/>
     </row>
-    <row r="916" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="11"/>
       <c r="B916" s="11"/>
       <c r="C916" s="11"/>
@@ -32442,7 +32443,7 @@
       <c r="Y916" s="11"/>
       <c r="Z916" s="11"/>
     </row>
-    <row r="917" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="11"/>
       <c r="B917" s="11"/>
       <c r="C917" s="11"/>
@@ -32470,7 +32471,7 @@
       <c r="Y917" s="11"/>
       <c r="Z917" s="11"/>
     </row>
-    <row r="918" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="11"/>
       <c r="B918" s="11"/>
       <c r="C918" s="11"/>
@@ -32498,7 +32499,7 @@
       <c r="Y918" s="11"/>
       <c r="Z918" s="11"/>
     </row>
-    <row r="919" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="11"/>
       <c r="B919" s="11"/>
       <c r="C919" s="11"/>
@@ -32526,7 +32527,7 @@
       <c r="Y919" s="11"/>
       <c r="Z919" s="11"/>
     </row>
-    <row r="920" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="11"/>
       <c r="B920" s="11"/>
       <c r="C920" s="11"/>
@@ -32554,7 +32555,7 @@
       <c r="Y920" s="11"/>
       <c r="Z920" s="11"/>
     </row>
-    <row r="921" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="11"/>
       <c r="B921" s="11"/>
       <c r="C921" s="11"/>
@@ -32582,7 +32583,7 @@
       <c r="Y921" s="11"/>
       <c r="Z921" s="11"/>
     </row>
-    <row r="922" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="11"/>
       <c r="B922" s="11"/>
       <c r="C922" s="11"/>
@@ -32610,7 +32611,7 @@
       <c r="Y922" s="11"/>
       <c r="Z922" s="11"/>
     </row>
-    <row r="923" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="11"/>
       <c r="B923" s="11"/>
       <c r="C923" s="11"/>
@@ -32638,7 +32639,7 @@
       <c r="Y923" s="11"/>
       <c r="Z923" s="11"/>
     </row>
-    <row r="924" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="11"/>
       <c r="B924" s="11"/>
       <c r="C924" s="11"/>
@@ -32666,7 +32667,7 @@
       <c r="Y924" s="11"/>
       <c r="Z924" s="11"/>
     </row>
-    <row r="925" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="11"/>
       <c r="B925" s="11"/>
       <c r="C925" s="11"/>
@@ -32694,7 +32695,7 @@
       <c r="Y925" s="11"/>
       <c r="Z925" s="11"/>
     </row>
-    <row r="926" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="11"/>
       <c r="B926" s="11"/>
       <c r="C926" s="11"/>
@@ -32722,7 +32723,7 @@
       <c r="Y926" s="11"/>
       <c r="Z926" s="11"/>
     </row>
-    <row r="927" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="11"/>
       <c r="B927" s="11"/>
       <c r="C927" s="11"/>
@@ -32750,7 +32751,7 @@
       <c r="Y927" s="11"/>
       <c r="Z927" s="11"/>
     </row>
-    <row r="928" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="11"/>
       <c r="B928" s="11"/>
       <c r="C928" s="11"/>
@@ -32778,7 +32779,7 @@
       <c r="Y928" s="11"/>
       <c r="Z928" s="11"/>
     </row>
-    <row r="929" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="11"/>
       <c r="B929" s="11"/>
       <c r="C929" s="11"/>
@@ -32806,7 +32807,7 @@
       <c r="Y929" s="11"/>
       <c r="Z929" s="11"/>
     </row>
-    <row r="930" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="11"/>
       <c r="B930" s="11"/>
       <c r="C930" s="11"/>
@@ -32834,7 +32835,7 @@
       <c r="Y930" s="11"/>
       <c r="Z930" s="11"/>
     </row>
-    <row r="931" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="11"/>
       <c r="B931" s="11"/>
       <c r="C931" s="11"/>
@@ -32862,7 +32863,7 @@
       <c r="Y931" s="11"/>
       <c r="Z931" s="11"/>
     </row>
-    <row r="932" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="11"/>
       <c r="B932" s="11"/>
       <c r="C932" s="11"/>
@@ -32890,7 +32891,7 @@
       <c r="Y932" s="11"/>
       <c r="Z932" s="11"/>
     </row>
-    <row r="933" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="11"/>
       <c r="B933" s="11"/>
       <c r="C933" s="11"/>
@@ -32918,7 +32919,7 @@
       <c r="Y933" s="11"/>
       <c r="Z933" s="11"/>
     </row>
-    <row r="934" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="11"/>
       <c r="B934" s="11"/>
       <c r="C934" s="11"/>
@@ -32946,7 +32947,7 @@
       <c r="Y934" s="11"/>
       <c r="Z934" s="11"/>
     </row>
-    <row r="935" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="11"/>
       <c r="B935" s="11"/>
       <c r="C935" s="11"/>
@@ -32974,7 +32975,7 @@
       <c r="Y935" s="11"/>
       <c r="Z935" s="11"/>
     </row>
-    <row r="936" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="11"/>
       <c r="B936" s="11"/>
       <c r="C936" s="11"/>
@@ -33002,7 +33003,7 @@
       <c r="Y936" s="11"/>
       <c r="Z936" s="11"/>
     </row>
-    <row r="937" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="11"/>
       <c r="B937" s="11"/>
       <c r="C937" s="11"/>
@@ -33030,7 +33031,7 @@
       <c r="Y937" s="11"/>
       <c r="Z937" s="11"/>
     </row>
-    <row r="938" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="11"/>
       <c r="B938" s="11"/>
       <c r="C938" s="11"/>
@@ -33058,7 +33059,7 @@
       <c r="Y938" s="11"/>
       <c r="Z938" s="11"/>
     </row>
-    <row r="939" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="11"/>
       <c r="B939" s="11"/>
       <c r="C939" s="11"/>
@@ -33086,7 +33087,7 @@
       <c r="Y939" s="11"/>
       <c r="Z939" s="11"/>
     </row>
-    <row r="940" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="11"/>
       <c r="B940" s="11"/>
       <c r="C940" s="11"/>
@@ -33114,7 +33115,7 @@
       <c r="Y940" s="11"/>
       <c r="Z940" s="11"/>
     </row>
-    <row r="941" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="11"/>
       <c r="B941" s="11"/>
       <c r="C941" s="11"/>
@@ -33142,7 +33143,7 @@
       <c r="Y941" s="11"/>
       <c r="Z941" s="11"/>
     </row>
-    <row r="942" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="11"/>
       <c r="B942" s="11"/>
       <c r="C942" s="11"/>
@@ -33170,7 +33171,7 @@
       <c r="Y942" s="11"/>
       <c r="Z942" s="11"/>
     </row>
-    <row r="943" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="11"/>
       <c r="B943" s="11"/>
       <c r="C943" s="11"/>
@@ -33198,7 +33199,7 @@
       <c r="Y943" s="11"/>
       <c r="Z943" s="11"/>
     </row>
-    <row r="944" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="11"/>
       <c r="B944" s="11"/>
       <c r="C944" s="11"/>
@@ -33226,7 +33227,7 @@
       <c r="Y944" s="11"/>
       <c r="Z944" s="11"/>
     </row>
-    <row r="945" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="11"/>
       <c r="B945" s="11"/>
       <c r="C945" s="11"/>
@@ -33254,7 +33255,7 @@
       <c r="Y945" s="11"/>
       <c r="Z945" s="11"/>
     </row>
-    <row r="946" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="11"/>
       <c r="B946" s="11"/>
       <c r="C946" s="11"/>
@@ -33282,7 +33283,7 @@
       <c r="Y946" s="11"/>
       <c r="Z946" s="11"/>
     </row>
-    <row r="947" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="11"/>
       <c r="B947" s="11"/>
       <c r="C947" s="11"/>
@@ -33310,7 +33311,7 @@
       <c r="Y947" s="11"/>
       <c r="Z947" s="11"/>
     </row>
-    <row r="948" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="11"/>
       <c r="B948" s="11"/>
       <c r="C948" s="11"/>
@@ -33338,7 +33339,7 @@
       <c r="Y948" s="11"/>
       <c r="Z948" s="11"/>
     </row>
-    <row r="949" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="11"/>
       <c r="B949" s="11"/>
       <c r="C949" s="11"/>
@@ -33366,7 +33367,7 @@
       <c r="Y949" s="11"/>
       <c r="Z949" s="11"/>
     </row>
-    <row r="950" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="11"/>
       <c r="B950" s="11"/>
       <c r="C950" s="11"/>
@@ -33394,7 +33395,7 @@
       <c r="Y950" s="11"/>
       <c r="Z950" s="11"/>
     </row>
-    <row r="951" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="11"/>
       <c r="B951" s="11"/>
       <c r="C951" s="11"/>
@@ -33422,7 +33423,7 @@
       <c r="Y951" s="11"/>
       <c r="Z951" s="11"/>
     </row>
-    <row r="952" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="11"/>
       <c r="B952" s="11"/>
       <c r="C952" s="11"/>
@@ -33450,7 +33451,7 @@
       <c r="Y952" s="11"/>
       <c r="Z952" s="11"/>
     </row>
-    <row r="953" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="11"/>
       <c r="B953" s="11"/>
       <c r="C953" s="11"/>
@@ -33478,7 +33479,7 @@
       <c r="Y953" s="11"/>
       <c r="Z953" s="11"/>
     </row>
-    <row r="954" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="11"/>
       <c r="B954" s="11"/>
       <c r="C954" s="11"/>
@@ -33506,7 +33507,7 @@
       <c r="Y954" s="11"/>
       <c r="Z954" s="11"/>
     </row>
-    <row r="955" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="11"/>
       <c r="B955" s="11"/>
       <c r="C955" s="11"/>
@@ -33534,7 +33535,7 @@
       <c r="Y955" s="11"/>
       <c r="Z955" s="11"/>
     </row>
-    <row r="956" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="11"/>
       <c r="B956" s="11"/>
       <c r="C956" s="11"/>
@@ -33562,7 +33563,7 @@
       <c r="Y956" s="11"/>
       <c r="Z956" s="11"/>
     </row>
-    <row r="957" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="11"/>
       <c r="B957" s="11"/>
       <c r="C957" s="11"/>
@@ -33590,7 +33591,7 @@
       <c r="Y957" s="11"/>
       <c r="Z957" s="11"/>
     </row>
-    <row r="958" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="11"/>
       <c r="B958" s="11"/>
       <c r="C958" s="11"/>
@@ -33618,7 +33619,7 @@
       <c r="Y958" s="11"/>
       <c r="Z958" s="11"/>
     </row>
-    <row r="959" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="11"/>
       <c r="B959" s="11"/>
       <c r="C959" s="11"/>
@@ -33646,7 +33647,7 @@
       <c r="Y959" s="11"/>
       <c r="Z959" s="11"/>
     </row>
-    <row r="960" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="11"/>
       <c r="B960" s="11"/>
       <c r="C960" s="11"/>
@@ -33674,7 +33675,7 @@
       <c r="Y960" s="11"/>
       <c r="Z960" s="11"/>
     </row>
-    <row r="961" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="11"/>
       <c r="B961" s="11"/>
       <c r="C961" s="11"/>
@@ -33702,7 +33703,7 @@
       <c r="Y961" s="11"/>
       <c r="Z961" s="11"/>
     </row>
-    <row r="962" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="11"/>
       <c r="B962" s="11"/>
       <c r="C962" s="11"/>
@@ -33730,7 +33731,7 @@
       <c r="Y962" s="11"/>
       <c r="Z962" s="11"/>
     </row>
-    <row r="963" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="11"/>
       <c r="B963" s="11"/>
       <c r="C963" s="11"/>
@@ -33758,7 +33759,7 @@
       <c r="Y963" s="11"/>
       <c r="Z963" s="11"/>
     </row>
-    <row r="964" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="11"/>
       <c r="B964" s="11"/>
       <c r="C964" s="11"/>
@@ -33786,7 +33787,7 @@
       <c r="Y964" s="11"/>
       <c r="Z964" s="11"/>
     </row>
-    <row r="965" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="11"/>
       <c r="B965" s="11"/>
       <c r="C965" s="11"/>
@@ -33814,7 +33815,7 @@
       <c r="Y965" s="11"/>
       <c r="Z965" s="11"/>
     </row>
-    <row r="966" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="11"/>
       <c r="B966" s="11"/>
       <c r="C966" s="11"/>
@@ -33842,7 +33843,7 @@
       <c r="Y966" s="11"/>
       <c r="Z966" s="11"/>
     </row>
-    <row r="967" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="11"/>
       <c r="B967" s="11"/>
       <c r="C967" s="11"/>
@@ -33870,7 +33871,7 @@
       <c r="Y967" s="11"/>
       <c r="Z967" s="11"/>
     </row>
-    <row r="968" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="11"/>
       <c r="B968" s="11"/>
       <c r="C968" s="11"/>
@@ -33898,7 +33899,7 @@
       <c r="Y968" s="11"/>
       <c r="Z968" s="11"/>
     </row>
-    <row r="969" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="11"/>
       <c r="B969" s="11"/>
       <c r="C969" s="11"/>
@@ -33926,7 +33927,7 @@
       <c r="Y969" s="11"/>
       <c r="Z969" s="11"/>
     </row>
-    <row r="970" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="11"/>
       <c r="B970" s="11"/>
       <c r="C970" s="11"/>
@@ -33954,7 +33955,7 @@
       <c r="Y970" s="11"/>
       <c r="Z970" s="11"/>
     </row>
-    <row r="971" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="11"/>
       <c r="B971" s="11"/>
       <c r="C971" s="11"/>
@@ -33982,7 +33983,7 @@
       <c r="Y971" s="11"/>
       <c r="Z971" s="11"/>
     </row>
-    <row r="972" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="11"/>
       <c r="B972" s="11"/>
       <c r="C972" s="11"/>
@@ -34010,7 +34011,7 @@
       <c r="Y972" s="11"/>
       <c r="Z972" s="11"/>
     </row>
-    <row r="973" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="11"/>
       <c r="B973" s="11"/>
       <c r="C973" s="11"/>
@@ -34038,7 +34039,7 @@
       <c r="Y973" s="11"/>
       <c r="Z973" s="11"/>
     </row>
-    <row r="974" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="11"/>
       <c r="B974" s="11"/>
       <c r="C974" s="11"/>
@@ -34066,7 +34067,7 @@
       <c r="Y974" s="11"/>
       <c r="Z974" s="11"/>
     </row>
-    <row r="975" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="11"/>
       <c r="B975" s="11"/>
       <c r="C975" s="11"/>
@@ -34094,7 +34095,7 @@
       <c r="Y975" s="11"/>
       <c r="Z975" s="11"/>
     </row>
-    <row r="976" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="11"/>
       <c r="B976" s="11"/>
       <c r="C976" s="11"/>
@@ -34122,7 +34123,7 @@
       <c r="Y976" s="11"/>
       <c r="Z976" s="11"/>
     </row>
-    <row r="977" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="11"/>
       <c r="B977" s="11"/>
       <c r="C977" s="11"/>
@@ -34150,7 +34151,7 @@
       <c r="Y977" s="11"/>
       <c r="Z977" s="11"/>
     </row>
-    <row r="978" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="11"/>
       <c r="B978" s="11"/>
       <c r="C978" s="11"/>
@@ -34178,7 +34179,7 @@
       <c r="Y978" s="11"/>
       <c r="Z978" s="11"/>
     </row>
-    <row r="979" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="11"/>
       <c r="B979" s="11"/>
       <c r="C979" s="11"/>
@@ -34206,7 +34207,7 @@
       <c r="Y979" s="11"/>
       <c r="Z979" s="11"/>
     </row>
-    <row r="980" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="11"/>
       <c r="B980" s="11"/>
       <c r="C980" s="11"/>
@@ -34234,7 +34235,7 @@
       <c r="Y980" s="11"/>
       <c r="Z980" s="11"/>
     </row>
-    <row r="981" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="11"/>
       <c r="B981" s="11"/>
       <c r="C981" s="11"/>
@@ -34262,7 +34263,7 @@
       <c r="Y981" s="11"/>
       <c r="Z981" s="11"/>
     </row>
-    <row r="982" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="11"/>
       <c r="B982" s="11"/>
       <c r="C982" s="11"/>
@@ -34290,7 +34291,7 @@
       <c r="Y982" s="11"/>
       <c r="Z982" s="11"/>
     </row>
-    <row r="983" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="11"/>
       <c r="B983" s="11"/>
       <c r="C983" s="11"/>
@@ -34318,7 +34319,7 @@
       <c r="Y983" s="11"/>
       <c r="Z983" s="11"/>
     </row>
-    <row r="984" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="11"/>
       <c r="B984" s="11"/>
       <c r="C984" s="11"/>
@@ -34346,7 +34347,7 @@
       <c r="Y984" s="11"/>
       <c r="Z984" s="11"/>
     </row>
-    <row r="985" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="11"/>
       <c r="B985" s="11"/>
       <c r="C985" s="11"/>
@@ -34374,7 +34375,7 @@
       <c r="Y985" s="11"/>
       <c r="Z985" s="11"/>
     </row>
-    <row r="986" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="11"/>
       <c r="B986" s="11"/>
       <c r="C986" s="11"/>
@@ -34402,7 +34403,7 @@
       <c r="Y986" s="11"/>
       <c r="Z986" s="11"/>
     </row>
-    <row r="987" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="11"/>
       <c r="B987" s="11"/>
       <c r="C987" s="11"/>
@@ -34430,7 +34431,7 @@
       <c r="Y987" s="11"/>
       <c r="Z987" s="11"/>
     </row>
-    <row r="988" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="11"/>
       <c r="B988" s="11"/>
       <c r="C988" s="11"/>
@@ -34458,7 +34459,7 @@
       <c r="Y988" s="11"/>
       <c r="Z988" s="11"/>
     </row>
-    <row r="989" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="11"/>
       <c r="B989" s="11"/>
       <c r="C989" s="11"/>
@@ -34486,7 +34487,7 @@
       <c r="Y989" s="11"/>
       <c r="Z989" s="11"/>
     </row>
-    <row r="990" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="11"/>
       <c r="B990" s="11"/>
       <c r="C990" s="11"/>
@@ -34514,7 +34515,7 @@
       <c r="Y990" s="11"/>
       <c r="Z990" s="11"/>
     </row>
-    <row r="991" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="11"/>
       <c r="B991" s="11"/>
       <c r="C991" s="11"/>
@@ -34542,7 +34543,7 @@
       <c r="Y991" s="11"/>
       <c r="Z991" s="11"/>
     </row>
-    <row r="992" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="11"/>
       <c r="B992" s="11"/>
       <c r="C992" s="11"/>
@@ -34570,7 +34571,7 @@
       <c r="Y992" s="11"/>
       <c r="Z992" s="11"/>
     </row>
-    <row r="993" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="11"/>
       <c r="B993" s="11"/>
       <c r="C993" s="11"/>
@@ -34598,7 +34599,7 @@
       <c r="Y993" s="11"/>
       <c r="Z993" s="11"/>
     </row>
-    <row r="994" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="11"/>
       <c r="B994" s="11"/>
       <c r="C994" s="11"/>
@@ -34626,7 +34627,7 @@
       <c r="Y994" s="11"/>
       <c r="Z994" s="11"/>
     </row>
-    <row r="995" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="11"/>
       <c r="B995" s="11"/>
       <c r="C995" s="11"/>
@@ -34654,7 +34655,7 @@
       <c r="Y995" s="11"/>
       <c r="Z995" s="11"/>
     </row>
-    <row r="996" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="11"/>
       <c r="B996" s="11"/>
       <c r="C996" s="11"/>
@@ -34682,7 +34683,7 @@
       <c r="Y996" s="11"/>
       <c r="Z996" s="11"/>
     </row>
-    <row r="997" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="11"/>
       <c r="B997" s="11"/>
       <c r="C997" s="11"/>
@@ -34710,7 +34711,7 @@
       <c r="Y997" s="11"/>
       <c r="Z997" s="11"/>
     </row>
-    <row r="998" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="11"/>
       <c r="B998" s="11"/>
       <c r="C998" s="11"/>
@@ -34738,7 +34739,7 @@
       <c r="Y998" s="11"/>
       <c r="Z998" s="11"/>
     </row>
-    <row r="999" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="11"/>
       <c r="B999" s="11"/>
       <c r="C999" s="11"/>
@@ -34766,7 +34767,7 @@
       <c r="Y999" s="11"/>
       <c r="Z999" s="11"/>
     </row>
-    <row r="1000" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="11"/>
       <c r="B1000" s="11"/>
       <c r="C1000" s="11"/>
@@ -34795,7 +34796,13 @@
       <c r="Z1000" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z1000" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Z1000" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/IJE Data Elements Mapping.xlsx
+++ b/IJE Data Elements Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbdulMalikShakir\Documents\NCHS-20210126T065408Z-001\NCHS\VR_FHIR\VRDR_R4_Publication\vrdr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC76C02-CD27-4442-9EAD-5622AF6F6551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11250808-04EF-424C-B512-E8E0D6C769BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2373,14 +2373,14 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
+      <selection pane="bottomRight" activeCell="E72" sqref="E71:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="72.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
